--- a/public/advisors.xlsx
+++ b/public/advisors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1115">
   <si>
     <t>idAdvisor</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Hoàng Xuân Tùng</t>
   </si>
   <si>
-    <t>Nguyễn Đình Hoá</t>
-  </si>
-  <si>
     <t>Guest 11</t>
   </si>
   <si>
@@ -139,7 +136,7 @@
     <t>Đặng Đức Hạnh</t>
   </si>
   <si>
-    <t>Nguyễn Việt Hà ĐHCN</t>
+    <t>Nguyễn Việt Hà</t>
   </si>
   <si>
     <t>Phạm Ngọc Hùng</t>
@@ -766,378 +763,879 @@
     <t>Trần Hải Yến</t>
   </si>
   <si>
+    <t>Vũ Minh Anh</t>
+  </si>
+  <si>
+    <t>Vũ Đình Quang</t>
+  </si>
+  <si>
+    <t>Trần Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Khắc Phong</t>
+  </si>
+  <si>
+    <t>Đỗ Khắc Phong</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Tùng</t>
+  </si>
+  <si>
+    <t>Phạm Bảo Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Doãn Thị Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thạc Thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Trần </t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Cảnh</t>
+  </si>
+  <si>
+    <t>Trác Quang Thịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Vân</t>
+  </si>
+  <si>
+    <t>Thái Đình Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Trang</t>
+  </si>
+  <si>
+    <t>Cấn Duy Cát</t>
+  </si>
+  <si>
+    <t>Trần Lê Minh Nhật</t>
+  </si>
+  <si>
+    <t>Phạm Thị Quỳnh Trang</t>
+  </si>
+  <si>
+    <t>Lê Trung Thành</t>
+  </si>
+  <si>
+    <t>Phạm Thị Việt Hương</t>
+  </si>
+  <si>
+    <t>Lại Thanh Hương</t>
+  </si>
+  <si>
+    <t>Đỗ Huy Điệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng </t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm My</t>
+  </si>
+  <si>
+    <t>Hoàng Xuân Phương</t>
+  </si>
+  <si>
+    <t>Hà Đức Văn</t>
+  </si>
+  <si>
+    <t>Lưu Quang Thắng</t>
+  </si>
+  <si>
+    <t>Mẫn Đức Chức</t>
+  </si>
+  <si>
+    <t>Lưu Việt Hưng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hà</t>
+  </si>
+  <si>
+    <t>Avitech</t>
+  </si>
+  <si>
+    <t>Đặng Thế Ba</t>
+  </si>
+  <si>
+    <t>Lê Thị Hợi</t>
+  </si>
+  <si>
+    <t>Kiều Hải Đăng</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Cường</t>
+  </si>
+  <si>
+    <t>Trịnh Anh Vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Dung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Anh</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Hưng</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Trần Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sơn</t>
+  </si>
+  <si>
+    <t>Bùi Quang Cường</t>
+  </si>
+  <si>
+    <t>Trần Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Trần Đình Dương</t>
+  </si>
+  <si>
+    <t>Trần Như Thuật</t>
+  </si>
+  <si>
+    <t>Vương Tùng Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Cường</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Hồ Anh Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Lãm</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Minh</t>
+  </si>
+  <si>
+    <t>Phạm Mạnh Linh</t>
+  </si>
+  <si>
+    <t>Trần Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>Manh</t>
+  </si>
+  <si>
+    <t>Lê Huy Hàm</t>
+  </si>
+  <si>
+    <t>Khoa Công nghệ Nông Nghiệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Hà</t>
+  </si>
+  <si>
+    <t>Trần Cường Hưng</t>
+  </si>
+  <si>
+    <t>Ngô Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Minh</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Tuân</t>
+  </si>
+  <si>
+    <t>Phan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Trang</t>
+  </si>
+  <si>
+    <t>Triệu Hoàng An</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Hoàng Đăng Kiên</t>
+  </si>
+  <si>
+    <t>Hà Minh Cường</t>
+  </si>
+  <si>
+    <t>Dương Việt Dũng</t>
+  </si>
+  <si>
+    <t>Lê Đình Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Hoàng Vương</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Thảo</t>
+  </si>
+  <si>
+    <t>Phạm Xuân Lộc</t>
+  </si>
+  <si>
+    <t>Mai Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Cơ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngô Doanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Quỳnh</t>
+  </si>
+  <si>
+    <t>Trần Xuân Tuyến</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Lương Bằng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Hằng</t>
+  </si>
+  <si>
+    <t>Vũ Thị Thao</t>
+  </si>
+  <si>
+    <t>Trần Tuấn Linh</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Linh</t>
+  </si>
+  <si>
+    <t>Phòng Thí nghiệm Công nghệ Tri Thức</t>
+  </si>
+  <si>
+    <t>Lê Văn Tuân</t>
+  </si>
+  <si>
+    <t>Hoàng Gia Hưng</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Việt Cường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng </t>
+  </si>
+  <si>
+    <t>Tuấn Dũng</t>
+  </si>
+  <si>
+    <t>Ngô Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hoàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Hoàng Quốc </t>
+  </si>
+  <si>
+    <t>Ngô Kiên Tuấn</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Hoài Thu</t>
+  </si>
+  <si>
+    <t>Lê Phạm Văn Linh</t>
+  </si>
+  <si>
+    <t>Trần Minh Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phi</t>
+  </si>
+  <si>
+    <t>Trần Quang Bách</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tiến</t>
+  </si>
+  <si>
+    <t>Hoàng Bảo Anh</t>
+  </si>
+  <si>
+    <t>Đinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tiến</t>
+  </si>
+  <si>
+    <t>Trần Thanh Hằng</t>
+  </si>
+  <si>
+    <t>Ngô Đình Đạt</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Ngô Xuân Trường</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Cảnh</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Giang</t>
+  </si>
+  <si>
+    <t>Tkdc-dhcn</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Bình</t>
+  </si>
+  <si>
+    <t>Hà Quang Thụy</t>
+  </si>
+  <si>
+    <t>Trần Quang Vinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Tùng</t>
+  </si>
+  <si>
+    <t>Đồng Thị Ngọc Lan</t>
+  </si>
+  <si>
+    <t>Trần Quang Diệu</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Hóa</t>
+  </si>
+  <si>
     <t>Hà Minh Hoàng</t>
   </si>
   <si>
-    <t>Vũ Minh Anh</t>
-  </si>
-  <si>
-    <t>Vũ Đình Quang</t>
-  </si>
-  <si>
-    <t>Trần Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Nguyễn Khắc Phong</t>
-  </si>
-  <si>
-    <t>Đỗ Khắc Phong</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá Tùng</t>
-  </si>
-  <si>
-    <t>Phạm Bảo Sơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Hùng</t>
-  </si>
-  <si>
-    <t>Vu</t>
-  </si>
-  <si>
-    <t>Doãn Thị Hiền</t>
-  </si>
-  <si>
-    <t>Nguyễn Thạc Thống</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng Trần </t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Cảnh</t>
-  </si>
-  <si>
-    <t>Trác Quang Thịnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Cẩm Vân</t>
-  </si>
-  <si>
-    <t>Thái Đình Phúc</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Đức</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Trang</t>
-  </si>
-  <si>
-    <t>Cấn Duy Cát</t>
-  </si>
-  <si>
-    <t>Trần Lê Minh Nhật</t>
-  </si>
-  <si>
-    <t>Phạm Thị Quỳnh Trang</t>
-  </si>
-  <si>
-    <t>Lê Trung Thành</t>
-  </si>
-  <si>
-    <t>Phạm Thị Việt Hương</t>
-  </si>
-  <si>
-    <t>Lại Thanh Hương</t>
-  </si>
-  <si>
-    <t>Đỗ Huy Điệp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng </t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Diễm My</t>
-  </si>
-  <si>
-    <t>Hoàng Xuân Phương</t>
-  </si>
-  <si>
-    <t>Hà Đức Văn</t>
-  </si>
-  <si>
-    <t>Lưu Quang Thắng</t>
-  </si>
-  <si>
-    <t>Mẫn Đức Chức</t>
-  </si>
-  <si>
-    <t>Lưu Việt Hưng</t>
-  </si>
-  <si>
-    <t>Phạm Văn Hà</t>
-  </si>
-  <si>
-    <t>Avitech</t>
-  </si>
-  <si>
-    <t>Đặng Thế Ba</t>
-  </si>
-  <si>
-    <t>Lê Thị Hợi</t>
-  </si>
-  <si>
-    <t>Kiều Hải Đăng</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Cường</t>
-  </si>
-  <si>
-    <t>Trịnh Anh Vũ</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Dung</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Anh</t>
-  </si>
-  <si>
-    <t>Trần Ngọc Hưng</t>
-  </si>
-  <si>
-    <t>Tran</t>
-  </si>
-  <si>
-    <t>Trần Thị Nguyệt</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Sơn</t>
-  </si>
-  <si>
-    <t>Bùi Quang Cường</t>
-  </si>
-  <si>
-    <t>Trần Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Trần Đình Dương</t>
-  </si>
-  <si>
-    <t>Trần Như Thuật</t>
-  </si>
-  <si>
-    <t>Vương Tùng Long</t>
-  </si>
-  <si>
-    <t>Nguyễn Như Cường</t>
-  </si>
-  <si>
-    <t>Pham</t>
-  </si>
-  <si>
-    <t>Hồ Anh Tâm</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Lãm</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Minh</t>
-  </si>
-  <si>
-    <t>Phạm Mạnh Linh</t>
-  </si>
-  <si>
-    <t>Trần Trọng Hiếu</t>
-  </si>
-  <si>
-    <t>Manh</t>
-  </si>
-  <si>
-    <t>Lê Huy Hàm</t>
-  </si>
-  <si>
-    <t>Khoa Công nghệ Nông Nghiệp</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh Hà</t>
-  </si>
-  <si>
-    <t>Trần Cường Hưng</t>
-  </si>
-  <si>
-    <t>Ngô Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Minh</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Tuân</t>
-  </si>
-  <si>
-    <t>Phan</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thu Trang</t>
-  </si>
-  <si>
-    <t>Triệu Hoàng An</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Anh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Sơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Hoàng Đăng Kiên</t>
-  </si>
-  <si>
-    <t>Hà Minh Cường</t>
-  </si>
-  <si>
-    <t>Dương Việt Dũng</t>
-  </si>
-  <si>
-    <t>Lê Đình Anh</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ Hoàng Vương</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Thảo</t>
-  </si>
-  <si>
-    <t>Phạm Xuân Lộc</t>
-  </si>
-  <si>
-    <t>Mai Thị Ngọc Ánh</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Cơ</t>
-  </si>
-  <si>
-    <t>Nguyễn Thu Trang</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngô Doanh</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Quỳnh</t>
-  </si>
-  <si>
-    <t>Trần Xuân Tuyến</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngọc Ánh</t>
-  </si>
-  <si>
-    <t>Nguyễn Lương Bằng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thu Hằng</t>
-  </si>
-  <si>
-    <t>Vũ Thị Thao</t>
-  </si>
-  <si>
-    <t>Trần Tuấn Linh</t>
-  </si>
-  <si>
-    <t>Vũ Ngọc Linh</t>
-  </si>
-  <si>
-    <t>Phòng Thí nghiệm Công nghệ Tri Thức</t>
-  </si>
-  <si>
-    <t>Lê Văn Tuân</t>
-  </si>
-  <si>
-    <t>Hoàng Gia Hưng</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Bình</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Việt Cường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đồng </t>
-  </si>
-  <si>
-    <t>Tuấn Dũng</t>
-  </si>
-  <si>
-    <t>Ngô Minh Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Hoàn</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Huyền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Hoàng Quốc </t>
-  </si>
-  <si>
-    <t>Ngô Kiên Tuấn</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Hoài Thu</t>
-  </si>
-  <si>
-    <t>Lê Phạm Văn Linh</t>
-  </si>
-  <si>
-    <t>Trần Minh Đức</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Phi</t>
-  </si>
-  <si>
-    <t>Trần Quang Bách</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Tiến</t>
-  </si>
-  <si>
-    <t>Hoàng Bảo Anh</t>
-  </si>
-  <si>
-    <t>Đinh</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Tiến</t>
-  </si>
-  <si>
-    <t>Trần Thanh Hằng</t>
-  </si>
-  <si>
-    <t>Ngô Đình Đạt</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Ngô</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Cảnh</t>
+    <t>Nguyễn Trịnh Đông</t>
+  </si>
+  <si>
+    <t>Trịnh Thanh Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Hạnh Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Cẩm Tú</t>
+  </si>
+  <si>
+    <t>Đặng Thành Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Khải</t>
+  </si>
+  <si>
+    <t>Lê Hồng Lam</t>
+  </si>
+  <si>
+    <t>Võ Sỹ Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Vũ Tiến Thành</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Quỳnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Đại</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Tư</t>
+  </si>
+  <si>
+    <t>Tạ Việt Cường</t>
+  </si>
+  <si>
+    <t>Vũ Thị Hồng Nhạn</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Tiệp</t>
+  </si>
+  <si>
+    <t>Bùi Duy Hiếu</t>
+  </si>
+  <si>
+    <t>Bùi Ngọc Hải</t>
+  </si>
+  <si>
+    <t>Lê Quốc Khánh</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Tú</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thuy</t>
+  </si>
+  <si>
+    <t>Đỗ Đức Đông</t>
+  </si>
+  <si>
+    <t>Hồ Văn Canh</t>
+  </si>
+  <si>
+    <t>Hoàng Đỗ Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Lê Hồng Anh</t>
+  </si>
+  <si>
+    <t>Đào Thành Chung</t>
+  </si>
+  <si>
+    <t>Phạm Tuấn Dũng</t>
+  </si>
+  <si>
+    <t>Lương Thanh Nhạn</t>
+  </si>
+  <si>
+    <t>Mai Mạnh Trừng</t>
+  </si>
+  <si>
+    <t>Trần Văn Mạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Thành</t>
+  </si>
+  <si>
+    <t>Lê Trần Bình</t>
+  </si>
+  <si>
+    <t>Phan Văn Chi</t>
+  </si>
+  <si>
+    <t>Chu Hoàng Hà</t>
+  </si>
+  <si>
+    <t>Nông Văn Hải</t>
+  </si>
+  <si>
+    <t>Trương Nam Hải</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Lê Thanh Hoà</t>
+  </si>
+  <si>
+    <t>Nguyễn Bích Nhi</t>
+  </si>
+  <si>
+    <t>Quyền Đình Thi</t>
+  </si>
+  <si>
+    <t>VP liên kết đào tạo quốc tế</t>
+  </si>
+  <si>
+    <t>Liên kết ĐT QT</t>
+  </si>
+  <si>
+    <t>Đặng Hữu Thịnh</t>
+  </si>
+  <si>
+    <t>Giám sát mạng</t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng Kiên</t>
+  </si>
+  <si>
+    <t>Hoàng Tố Linh</t>
+  </si>
+  <si>
+    <t>Quản trị maillist</t>
+  </si>
+  <si>
+    <t>Hệ thống hỏi đáp</t>
+  </si>
+  <si>
+    <t>Đặng Minh Quý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visitor - ádfghjkl(Pass: uet@#ccne) Đề nghị không đổi mật khẩu quá dễ cho tài khoản này </t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Hà - BM HTTVT - Dùng tạm</t>
+  </si>
+  <si>
+    <t>TT Nghiên cứu phát triển CNPM</t>
+  </si>
+  <si>
+    <t>Bạch Gia Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Kiêm Hùng</t>
+  </si>
+  <si>
+    <t>Trần Thị Tuyết Nhung</t>
+  </si>
+  <si>
+    <t>Trần Cao Quyền</t>
+  </si>
+  <si>
+    <t>Vũ Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Phùng Chí Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiệu</t>
+  </si>
+  <si>
+    <t>Tạ Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>mr.test</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Tú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Thị Minh </t>
+  </si>
+  <si>
+    <t>Lê Thanh Hà</t>
+  </si>
+  <si>
+    <t>CNNE Web administrator</t>
+  </si>
+  <si>
+    <t>TTMT</t>
+  </si>
+  <si>
+    <t>Nong Thi Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam Hải</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>Lê Minh Đức</t>
+  </si>
+  <si>
+    <t>Khương Tuấn Dũng</t>
+  </si>
+  <si>
+    <t>Đoàn trường ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>Vũ Bá Duy</t>
+  </si>
+  <si>
+    <t>Phạm Thị Minh Hoà</t>
+  </si>
+  <si>
+    <t>Lê Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Thảo</t>
+  </si>
+  <si>
+    <t>Lê Thị Phương Thoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Vinh</t>
+  </si>
+  <si>
+    <t>Trần Thị Cẩm Lệ</t>
+  </si>
+  <si>
+    <t>Vũ Thị Bích Hà</t>
+  </si>
+  <si>
+    <t>Tạ Thanh Mai</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Hiện</t>
+  </si>
+  <si>
+    <t>Dương Đình Thiệu</t>
+  </si>
+  <si>
+    <t>Vũ Nguyên Thức</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cương</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Dũng</t>
+  </si>
+  <si>
+    <t>Trần Tiến Dũng</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Hoài</t>
+  </si>
+  <si>
+    <t>Nguyễn Doãn Hoàn</t>
+  </si>
+  <si>
+    <t>Phạm Duy Hưng</t>
+  </si>
+  <si>
+    <t>Phạm Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Thành</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Vệ</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>Phạm Thi Lam</t>
+  </si>
+  <si>
+    <t>Chu Thị Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xoan</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Cảnh</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thanh</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Vinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Vũ Thị Phương Thanh</t>
+  </si>
+  <si>
+    <t>Phòng KHCN-HTQT</t>
+  </si>
+  <si>
+    <t>ĐH Công nghệ - Tuyển sinh</t>
+  </si>
+  <si>
+    <t>Lê Thanh Trà</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thu Giang</t>
+  </si>
+  <si>
+    <t>Phòng Đào tạo - ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>Tuyển sinh sau đại học - ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>Thư viện hội sinh viên - ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Thảo</t>
+  </si>
+  <si>
+    <t>Đỗ</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Trần Thị Quỳnh Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim Thoa</t>
+  </si>
+  <si>
+    <t>Mạnh Phương Anh</t>
+  </si>
+  <si>
+    <t>Phòng đào tạo - Trường ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>Trần Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Phạm Văn Công</t>
+  </si>
+  <si>
+    <t>Phòng Công tác sinh viên</t>
+  </si>
+  <si>
+    <t>Vũ Anh</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Dung</t>
+  </si>
+  <si>
+    <t>Trung tam Dam bao chat luong-dhcn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chu </t>
+  </si>
+  <si>
+    <t>Trần Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Trần Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Chương trình Chất lượng cao</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng Ủy</t>
+  </si>
+  <si>
+    <t>Văn phòng Công đoàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Hiệu</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Nguyễn Quỳnh Giang</t>
+  </si>
+  <si>
+    <t>Trần Vũ Bảo Dung</t>
+  </si>
+  <si>
+    <t>Thanh tra Pháp chế</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hằng</t>
+  </si>
+  <si>
+    <t>Nguyễn Khánh Ly</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Phương Thanh</t>
+  </si>
+  <si>
+    <t>Lê Thùy Dương</t>
+  </si>
+  <si>
+    <t>Phòng Tổ chức cán bộ - Đại học Công nghệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Lâm Tùng</t>
+  </si>
+  <si>
+    <t>Lê Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Vũ Diệu Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huế</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà My</t>
+  </si>
+  <si>
+    <t>Phạm Đăng Hoàng</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch-Tài chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Khánh </t>
+  </si>
+  <si>
+    <t>doit</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Bảo Long</t>
+  </si>
+  <si>
+    <t>Lê Công Thương</t>
   </si>
   <si>
     <t>tunghx@vnu.edu.vn</t>
   </si>
   <si>
-    <t>hoand@ptit.vnpt.vn</t>
-  </si>
-  <si>
     <t>guest1@ptit.vnpt.vn</t>
   </si>
   <si>
@@ -1885,391 +2383,982 @@
     <t>yenth@vnu.edu.vn</t>
   </si>
   <si>
+    <t>anhvm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>quangvd2510@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tranthanhtung@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>phongnk@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>phongdk@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tungnb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ntplinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>sonpb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hungnguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>kienvu@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hiendoan@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ntthong@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>binhdt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>canhnd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tracthinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vanntc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>pdthai@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ducngx@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trangnm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>catcd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nhattlm95@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trangptq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhletrung@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huongpv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huonglt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>diepdh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>khanh.n.dang@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyendiemmy@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>phuonghx@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vanhd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanglq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>chucmd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anhphan@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hunglv54@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hapv241@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lanhuong1491@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>avitech@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>badt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoi_le@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dangkh_uet@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cuongnd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vuta@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungtnguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenthanhtung@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>danguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hungtn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>quanta@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyettran@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>sonnn12@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>bqcuong@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tranminhtuan@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duongtd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuattn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>longvt94@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cuongnn241@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenpd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoanhtam@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lamnd2005@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>minhnt95@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>linhmp@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hieutt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duongtuanmanh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hamle@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>fat@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhha1610@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tchung@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>natuan0502@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenminhhai@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nqminh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhminh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ndinhtuan15@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.ph@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trangttn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anth@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuananh.ng@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>sonntuet@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuannm317@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>kienhd1@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trangngtt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cuonghm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duongdv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.ld@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vuongnvh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thao.pham@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>xuanloc97ars@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anhmtn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cond@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trang.nguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>doanhnn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenngocquynh1997@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuyentx@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anhnguyenngoc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>bangnl@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hangnt97@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vtthao@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trantuanlinh1993@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vungoclinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dsktlab@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>levantuan112@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hunghg@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nl.khanh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>binh.nguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cuong.nxv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ca.hoanguet@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungpt98@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoang.nm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoannv41@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huyennguyen.uet@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vietphq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuanngokien@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>doanthihoaithu@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>linhlpv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ductranminh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>phinv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>bachqt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tiennn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anhhb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>minhdinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tiennd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hangtt.uet@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dat.ngodinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dothithuha247@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ngocdtn19@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huyenvu@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>truonggnx@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>quannh_94@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>canhnt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>phamthanhgiang@ioit.vn</t>
+  </si>
+  <si>
+    <t>coltech@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nnbinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuyhq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vinhtq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenthanhthuy@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenduy.tung@toshiba.co.jp</t>
+  </si>
+  <si>
+    <t>landn0101@gmail.com</t>
+  </si>
+  <si>
+    <t>dieutq@hcma.vn</t>
+  </si>
+  <si>
+    <t>dinhhoa@gmail.com</t>
+  </si>
+  <si>
+    <t>minhhoangha.vth@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyentrinhdong@gmail.com</t>
+  </si>
+  <si>
+    <t>binhtt75@gmail.com</t>
+  </si>
+  <si>
+    <t>phucnh@vimaru.edu.vn</t>
+  </si>
+  <si>
+    <t>ncamtu@gmail.com</t>
+  </si>
+  <si>
+    <t>trungdt@gmail.com</t>
+  </si>
+  <si>
+    <t>khainn10@gmail.com</t>
+  </si>
+  <si>
+    <t>lehonglam.skv@gmai.com</t>
+  </si>
+  <si>
+    <t>vosynam@gmail.com</t>
+  </si>
+  <si>
+    <t>ptgiang@ioit.ac.vn</t>
+  </si>
+  <si>
+    <t>hoanganh1606@gmail.com</t>
+  </si>
+  <si>
+    <t>tienthanh_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lhquynh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dainq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>datnb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tund@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cuongtv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vthnhan@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tiepnh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hieubd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>haibn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lqkhanh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuvt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuynguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dongdoduc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hovancanh@gmail.com</t>
+  </si>
+  <si>
+    <t>tunghdt@gmail.com</t>
+  </si>
+  <si>
+    <t>anhfit@gmail.com</t>
+  </si>
+  <si>
+    <t>chung.daothanh@hust.edu.vn</t>
+  </si>
+  <si>
+    <t>dungpt98@gmail.com</t>
+  </si>
+  <si>
+    <t>ltnhan1982@gmail.com</t>
+  </si>
+  <si>
+    <t>mmtrung@uneti.edu.vn</t>
+  </si>
+  <si>
+    <t>tvmanhqn@gmail.com</t>
+  </si>
+  <si>
+    <t>thanhnc80@gmail.com</t>
+  </si>
+  <si>
+    <t>binhlt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>chipv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hach@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hainv53@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>haitn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hienltt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoalt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nhinb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thiqd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>daotaoqt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lkdt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thinhdh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>giamsat@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>kiendh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>linhht@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>mlc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>qa@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>quydm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>visitor-aaaa@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoangha@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>contactselab@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duongbg@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>kiemhung@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nhungttt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>quyentc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuananh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungpc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hieunv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hanhth@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>mrtest@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cait2010@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huyendtm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ltha@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ccneweb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ccne@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nonghoa@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hainn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>atc2016@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duclm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungkt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>doandaihoccongnghe@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duyvb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoaptm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huyle@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thaontt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thoaltp@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vinhnq@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>camle@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>havb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>maitt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thehien@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thieudd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thucvn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>binhbt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>cuongnv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungnm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungtt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoaiptt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoannd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hungpd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hungpm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhnx@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tunglt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>venn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huongbtt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lampt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lettc@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>minhct@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>trinm@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vietnd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>xoannt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>canhnh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dangthanh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hattt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>quynhnt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhntk@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ntvinh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hanhnt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhvtp@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>khcn-htqt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuyensinhdhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tralt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>giangbtt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>daotao_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuyensinhsdh.dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuvienhsv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuthao@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nhungdo@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huyenle@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tranquynhphuong9805@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thoank@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>anhmp@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>daotaosdh_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuyetnga@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vcong.pham@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ctsv_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungva@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ngocnt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungnn09@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dbcl-uet@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hongnt1991@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ctkhuyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hangtt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuanta91@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>chuongtrinhCLC_DHCN@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vpdu_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vpcd_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>huyhieu@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thachln@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>giangnguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>dungb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>ttpc.dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>btha@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hangnt22@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lynk@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhdpt@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duongtl@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tccb_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lamtungnguyen@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>phuongthao7196@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>linhdv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nthue153@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>mynh@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoangpd@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>khtc_dhcn@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>duynk@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>doit@vnu.edu.vn</t>
+  </si>
+  <si>
     <t>minhhoang.ha@vnu.edu.vn</t>
   </si>
   <si>
-    <t>anhvm@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>quangvd2510@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tranthanhtung@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>phongnk@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>phongdk@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tungnb@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ntplinh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>sonpb@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hungnguyen@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>kienvu@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hiendoan@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ntthong@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>binhdt@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>canhnd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tracthinh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vanntc@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>pdthai@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ducngx@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>trangnm@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>catcd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nhattlm95@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>trangptq@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>thanhletrung@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>huongpv@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>huonglt@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>diepdh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>khanh.n.dang@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyendiemmy@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>phuonghx@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vanhd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>thanglq@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>chucmd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anhphan@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hunglv54@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hapv241@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>lanhuong1491@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>avitech@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>badt@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hoi_le@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>dangkh_uet@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>cuongnd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vuta@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>dungtnguyen@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyenthanhtung@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>danguyen@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hungtn@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>quanta@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyettran@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>sonnn12@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>bqcuong@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tranminhtuan@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>duongtd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>thuattn@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>longvt94@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>cuongnn241@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyenpd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hoanhtam@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>lamnd2005@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>minhnt95@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>linhmp@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hieutt@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>duongtuanmanh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hamle@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>fat@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>thanhha1610@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tchung@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>natuan0502@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyenminhhai@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nqminh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>thanhminh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ndinhtuan15@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anh.ph@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>trangttn@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anth@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tuananh.ng@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>sonntuet@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tuannm317@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>kienhd1@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>trangngtt@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>cuonghm@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>duongdv@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anh.ld@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vuongnvh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>thao.pham@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>xuanloc97ars@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anhmtn@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>cond@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>trang.nguyen@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>doanhnn@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyenngocquynh1997@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tuyentx@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anhnguyenngoc@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>bangnl@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hangnt97@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vtthao@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>trantuanlinh1993@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vungoclinh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>dsktlab@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>levantuan112@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hunghg@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>nl.khanh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>binh.nguyen@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>cuong.nxv@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ca.hoanguet@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>dungpt98@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hoang.nm@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hoannv41@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>huyennguyen.uet@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>vietphq@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tuanngokien@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>doanthihoaithu@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>linhlpv@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ductranminh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>phinv@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>bachqt@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tiennn@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>anhhb@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>minhdinh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tiennd@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>hangtt.uet@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>dat.ngodinh@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>dothithuha247@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>ngocdtn19@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>huyenvu@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>truonggnx@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>quannh_94@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>canhnt@vnu.edu.vn</t>
+    <t>longndb@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuonglc@vnu.edu.vn</t>
   </si>
   <si>
     <t>PTIT</t>
+  </si>
+  <si>
+    <t>Viện hàn lâm Khoa học Việt Nam</t>
+  </si>
+  <si>
+    <t>Công ty Toshiba</t>
+  </si>
+  <si>
+    <t>Học viện tài chính</t>
+  </si>
+  <si>
+    <t>HV Chính trị Quốc gia HCM</t>
+  </si>
+  <si>
+    <t>HV Công nghệ bưu chính viễn thông</t>
+  </si>
+  <si>
+    <t>Trường Đại học Phenikaa</t>
+  </si>
+  <si>
+    <t>Trường ĐH Hải Phòng</t>
+  </si>
+  <si>
+    <t>Trường ĐH Hàng Hải VN</t>
+  </si>
+  <si>
+    <t>Trường ĐH Nam Kinh, Trung Quốc</t>
+  </si>
+  <si>
+    <t>Trường ĐH Sư phạm HN</t>
+  </si>
+  <si>
+    <t>Trường ĐH Tài nguyên và Môi trường HN</t>
+  </si>
+  <si>
+    <t>Trường ĐHSP Kỹ thuật Vinh</t>
+  </si>
+  <si>
+    <t>Viện Bigdata, Vingroup</t>
+  </si>
+  <si>
+    <t>Viện CNTT, ĐHQGHN</t>
+  </si>
+  <si>
+    <t>Viện Hàn lâm KH&amp;CN VN</t>
+  </si>
+  <si>
+    <t>Bộ KH&amp;CN Việt Nam</t>
+  </si>
+  <si>
+    <t>Bộ Công An</t>
+  </si>
+  <si>
+    <t>Trường ĐH Mỏ Địa Chất</t>
+  </si>
+  <si>
+    <t>Trường ĐH Bách Khoa Hà Nội</t>
+  </si>
+  <si>
+    <t>Trường ĐH Công nghệ</t>
+  </si>
+  <si>
+    <t>Trường ĐH Y Hải Phòng</t>
+  </si>
+  <si>
+    <t>Trường ĐH kỹ thuật Công nghiệp Hà Nội</t>
+  </si>
+  <si>
+    <t>Công ty VNPT - Media Software</t>
+  </si>
+  <si>
+    <t>Học Viện KTQS</t>
   </si>
 </sst>
 </file>
@@ -2627,7 +3716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2658,4174 +3747,6230 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>540</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>751</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>9</v>
+        <v>764</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>392</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>407</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>409</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>410</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>413</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>414</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>416</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>417</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>425</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>426</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>427</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>429</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>431</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>432</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>435</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>436</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>437</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>438</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>439</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>440</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>441</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>442</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>443</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>611</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>445</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>446</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>449</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>450</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>451</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>452</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>453</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>621</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>455</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>456</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>457</v>
+        <v>624</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>458</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>459</v>
+        <v>626</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>460</v>
+        <v>627</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>461</v>
+        <v>628</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>462</v>
+        <v>629</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>463</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>464</v>
+        <v>631</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>465</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>466</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>467</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>468</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>469</v>
+        <v>636</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>470</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>471</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>474</v>
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>475</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>476</v>
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>477</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>478</v>
+        <v>645</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>479</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>647</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>481</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>482</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>483</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>484</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>485</v>
+        <v>652</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>486</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>487</v>
+        <v>654</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>489</v>
+        <v>656</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>490</v>
+        <v>657</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>491</v>
+        <v>658</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>492</v>
+        <v>659</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>493</v>
+        <v>660</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>494</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>495</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>496</v>
+        <v>663</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>497</v>
+        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>498</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>499</v>
+        <v>666</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>500</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>501</v>
+        <v>668</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>502</v>
+        <v>669</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>503</v>
+        <v>670</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>504</v>
+        <v>671</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>506</v>
+        <v>673</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>507</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>508</v>
+        <v>675</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>509</v>
+        <v>676</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>510</v>
+        <v>677</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>511</v>
+        <v>678</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>512</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>513</v>
+        <v>680</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>514</v>
+        <v>681</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>515</v>
+        <v>682</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>516</v>
+        <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>517</v>
+        <v>684</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>518</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>519</v>
+        <v>686</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>520</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>521</v>
+        <v>688</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>522</v>
+        <v>689</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>523</v>
+        <v>690</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>524</v>
+        <v>691</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>525</v>
+        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>526</v>
+        <v>693</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>527</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>528</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>529</v>
+        <v>696</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>530</v>
+        <v>697</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>531</v>
+        <v>698</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>532</v>
+        <v>699</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>533</v>
+        <v>700</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>534</v>
+        <v>701</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>535</v>
+        <v>702</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>536</v>
+        <v>703</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>537</v>
+        <v>704</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>538</v>
+        <v>705</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>539</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>540</v>
+        <v>707</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>541</v>
+        <v>708</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>543</v>
+        <v>710</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>544</v>
+        <v>711</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>545</v>
+        <v>712</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>546</v>
+        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>547</v>
+        <v>714</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C178" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>549</v>
+        <v>716</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>550</v>
+        <v>717</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>551</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>552</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>553</v>
+        <v>720</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>554</v>
+        <v>721</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>555</v>
+        <v>722</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>556</v>
+        <v>723</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>557</v>
+        <v>724</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>558</v>
+        <v>725</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>559</v>
+        <v>726</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>560</v>
+        <v>727</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>561</v>
+        <v>728</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>562</v>
+        <v>729</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>563</v>
+        <v>730</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>564</v>
+        <v>731</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>565</v>
+        <v>732</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>566</v>
+        <v>733</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="C197" t="s">
-        <v>567</v>
+        <v>734</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B198" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>568</v>
+        <v>735</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B199" t="s">
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>736</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B200" t="s">
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>570</v>
+        <v>737</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B201" t="s">
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>571</v>
+        <v>738</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B202" t="s">
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>572</v>
+        <v>739</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B203" t="s">
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>573</v>
+        <v>740</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B204" t="s">
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>574</v>
+        <v>741</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B205" t="s">
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>575</v>
+        <v>742</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B206" t="s">
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>576</v>
+        <v>743</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>577</v>
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B208" t="s">
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>578</v>
+        <v>745</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B209" t="s">
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>579</v>
+        <v>746</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B210" t="s">
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>580</v>
+        <v>747</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B211" t="s">
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>748</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B212" t="s">
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>582</v>
+        <v>749</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B213" t="s">
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>583</v>
+        <v>750</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B214" t="s">
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>584</v>
+        <v>751</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>585</v>
+        <v>752</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B216" t="s">
         <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>586</v>
+        <v>753</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B217" t="s">
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>587</v>
+        <v>754</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B218" t="s">
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>588</v>
+        <v>755</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B219" t="s">
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>589</v>
+        <v>756</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B220" t="s">
         <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>590</v>
+        <v>757</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B221" t="s">
         <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>591</v>
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B222" t="s">
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>592</v>
+        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B223" t="s">
         <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>593</v>
+        <v>760</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C224" t="s">
-        <v>594</v>
+        <v>761</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B225" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>595</v>
+        <v>762</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B226" t="s">
         <v>223</v>
       </c>
       <c r="C226" t="s">
-        <v>596</v>
+        <v>763</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B227" t="s">
         <v>224</v>
       </c>
       <c r="C227" t="s">
-        <v>597</v>
+        <v>764</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B228" t="s">
         <v>225</v>
       </c>
       <c r="C228" t="s">
-        <v>598</v>
+        <v>765</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B229" t="s">
         <v>226</v>
       </c>
       <c r="C229" t="s">
-        <v>599</v>
+        <v>766</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B230" t="s">
         <v>227</v>
       </c>
       <c r="C230" t="s">
-        <v>600</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B231" t="s">
         <v>228</v>
       </c>
       <c r="C231" t="s">
-        <v>601</v>
+        <v>768</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B232" t="s">
         <v>229</v>
       </c>
       <c r="C232" t="s">
-        <v>602</v>
+        <v>769</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B233" t="s">
         <v>230</v>
       </c>
       <c r="C233" t="s">
-        <v>603</v>
+        <v>770</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B234" t="s">
         <v>231</v>
       </c>
       <c r="C234" t="s">
-        <v>604</v>
+        <v>771</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B235" t="s">
         <v>232</v>
       </c>
       <c r="C235" t="s">
-        <v>605</v>
+        <v>772</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B236" t="s">
         <v>233</v>
       </c>
       <c r="C236" t="s">
-        <v>606</v>
+        <v>773</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B237" t="s">
         <v>234</v>
       </c>
       <c r="C237" t="s">
-        <v>607</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B238" t="s">
         <v>235</v>
       </c>
       <c r="C238" t="s">
-        <v>608</v>
+        <v>775</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B239" t="s">
         <v>236</v>
       </c>
       <c r="C239" t="s">
-        <v>609</v>
+        <v>776</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B240" t="s">
         <v>237</v>
       </c>
       <c r="C240" t="s">
-        <v>610</v>
+        <v>777</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B241" t="s">
         <v>238</v>
       </c>
       <c r="C241" t="s">
-        <v>611</v>
+        <v>778</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B242" t="s">
         <v>239</v>
       </c>
       <c r="C242" t="s">
-        <v>612</v>
+        <v>779</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B243" t="s">
         <v>240</v>
       </c>
       <c r="C243" t="s">
-        <v>613</v>
+        <v>780</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B244" t="s">
         <v>241</v>
       </c>
       <c r="C244" t="s">
-        <v>614</v>
+        <v>781</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B245" t="s">
         <v>242</v>
       </c>
       <c r="C245" t="s">
-        <v>615</v>
+        <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B246" t="s">
         <v>243</v>
       </c>
       <c r="C246" t="s">
-        <v>616</v>
+        <v>783</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B247" t="s">
         <v>244</v>
       </c>
       <c r="C247" t="s">
-        <v>617</v>
+        <v>784</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B248" t="s">
         <v>245</v>
       </c>
       <c r="C248" t="s">
-        <v>618</v>
+        <v>785</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B249" t="s">
         <v>246</v>
       </c>
       <c r="C249" t="s">
-        <v>619</v>
+        <v>786</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B250" t="s">
         <v>247</v>
       </c>
       <c r="C250" t="s">
-        <v>620</v>
+        <v>787</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B251" t="s">
         <v>248</v>
       </c>
       <c r="C251" t="s">
-        <v>621</v>
+        <v>788</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B252" t="s">
         <v>249</v>
       </c>
       <c r="C252" t="s">
-        <v>622</v>
+        <v>789</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B253" t="s">
         <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>623</v>
+        <v>790</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B254" t="s">
         <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>624</v>
+        <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B255" t="s">
         <v>252</v>
       </c>
       <c r="C255" t="s">
-        <v>625</v>
+        <v>792</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B256" t="s">
         <v>253</v>
       </c>
       <c r="C256" t="s">
-        <v>626</v>
+        <v>793</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B257" t="s">
         <v>254</v>
       </c>
       <c r="C257" t="s">
-        <v>627</v>
+        <v>794</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C258" t="s">
-        <v>628</v>
+        <v>795</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C259" t="s">
-        <v>629</v>
+        <v>796</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B260" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
-        <v>630</v>
+        <v>797</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B261" t="s">
         <v>257</v>
       </c>
       <c r="C261" t="s">
-        <v>631</v>
+        <v>798</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B262" t="s">
         <v>258</v>
       </c>
       <c r="C262" t="s">
-        <v>632</v>
+        <v>799</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B263" t="s">
         <v>259</v>
       </c>
       <c r="C263" t="s">
-        <v>633</v>
+        <v>800</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B264" t="s">
         <v>260</v>
       </c>
       <c r="C264" t="s">
-        <v>634</v>
+        <v>801</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B265" t="s">
         <v>261</v>
       </c>
       <c r="C265" t="s">
-        <v>635</v>
+        <v>802</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B266" t="s">
         <v>262</v>
       </c>
       <c r="C266" t="s">
-        <v>636</v>
+        <v>803</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B267" t="s">
         <v>263</v>
       </c>
       <c r="C267" t="s">
-        <v>637</v>
+        <v>804</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B268" t="s">
         <v>264</v>
       </c>
       <c r="C268" t="s">
-        <v>638</v>
+        <v>805</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B269" t="s">
         <v>265</v>
       </c>
       <c r="C269" t="s">
-        <v>639</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B270" t="s">
         <v>266</v>
       </c>
       <c r="C270" t="s">
-        <v>640</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B271" t="s">
         <v>267</v>
       </c>
       <c r="C271" t="s">
-        <v>641</v>
+        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B272" t="s">
         <v>268</v>
       </c>
       <c r="C272" t="s">
-        <v>642</v>
+        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B273" t="s">
         <v>269</v>
       </c>
       <c r="C273" t="s">
-        <v>643</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B274" t="s">
         <v>270</v>
       </c>
       <c r="C274" t="s">
-        <v>644</v>
+        <v>811</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B275" t="s">
         <v>271</v>
       </c>
       <c r="C275" t="s">
-        <v>645</v>
+        <v>812</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B276" t="s">
         <v>272</v>
       </c>
       <c r="C276" t="s">
-        <v>646</v>
+        <v>813</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B277" t="s">
         <v>273</v>
       </c>
       <c r="C277" t="s">
-        <v>647</v>
+        <v>814</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B278" t="s">
         <v>274</v>
       </c>
       <c r="C278" t="s">
-        <v>648</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B279" t="s">
         <v>275</v>
       </c>
       <c r="C279" t="s">
-        <v>649</v>
+        <v>816</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B280" t="s">
         <v>276</v>
       </c>
       <c r="C280" t="s">
-        <v>650</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B281" t="s">
         <v>277</v>
       </c>
       <c r="C281" t="s">
-        <v>651</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B282" t="s">
         <v>278</v>
       </c>
       <c r="C282" t="s">
-        <v>652</v>
+        <v>819</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B283" t="s">
         <v>279</v>
       </c>
       <c r="C283" t="s">
-        <v>653</v>
+        <v>820</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B284" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="C284" t="s">
-        <v>654</v>
+        <v>821</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B285" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C285" t="s">
-        <v>655</v>
+        <v>822</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B286" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="C286" t="s">
-        <v>656</v>
+        <v>823</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B287" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="C287" t="s">
-        <v>657</v>
+        <v>824</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B288" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C288" t="s">
-        <v>658</v>
+        <v>825</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B289" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="C289" t="s">
-        <v>659</v>
+        <v>826</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B290" t="s">
         <v>284</v>
       </c>
       <c r="C290" t="s">
-        <v>660</v>
+        <v>827</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B291" t="s">
         <v>285</v>
       </c>
       <c r="C291" t="s">
-        <v>661</v>
+        <v>828</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B292" t="s">
         <v>286</v>
       </c>
       <c r="C292" t="s">
-        <v>662</v>
+        <v>829</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B293" t="s">
         <v>287</v>
       </c>
       <c r="C293" t="s">
-        <v>663</v>
+        <v>830</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B294" t="s">
         <v>288</v>
       </c>
       <c r="C294" t="s">
-        <v>664</v>
+        <v>831</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B295" t="s">
         <v>289</v>
       </c>
       <c r="C295" t="s">
-        <v>665</v>
+        <v>832</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B296" t="s">
         <v>290</v>
       </c>
       <c r="C296" t="s">
-        <v>666</v>
+        <v>833</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B297" t="s">
         <v>291</v>
       </c>
       <c r="C297" t="s">
-        <v>667</v>
+        <v>834</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B298" t="s">
         <v>292</v>
       </c>
       <c r="C298" t="s">
-        <v>668</v>
+        <v>835</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B299" t="s">
         <v>293</v>
       </c>
       <c r="C299" t="s">
-        <v>669</v>
+        <v>836</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B300" t="s">
         <v>294</v>
       </c>
       <c r="C300" t="s">
-        <v>670</v>
+        <v>837</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B301" t="s">
         <v>295</v>
       </c>
       <c r="C301" t="s">
-        <v>671</v>
+        <v>838</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B302" t="s">
         <v>296</v>
       </c>
       <c r="C302" t="s">
-        <v>672</v>
+        <v>839</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B303" t="s">
         <v>297</v>
       </c>
       <c r="C303" t="s">
-        <v>673</v>
+        <v>840</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B304" t="s">
         <v>298</v>
       </c>
       <c r="C304" t="s">
-        <v>674</v>
+        <v>841</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B305" t="s">
         <v>299</v>
       </c>
       <c r="C305" t="s">
-        <v>675</v>
+        <v>842</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B306" t="s">
         <v>300</v>
       </c>
       <c r="C306" t="s">
-        <v>676</v>
+        <v>843</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B307" t="s">
         <v>301</v>
       </c>
       <c r="C307" t="s">
-        <v>677</v>
+        <v>844</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B308" t="s">
         <v>302</v>
       </c>
       <c r="C308" t="s">
-        <v>678</v>
+        <v>845</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B309" t="s">
         <v>303</v>
       </c>
       <c r="C309" t="s">
-        <v>679</v>
+        <v>846</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B310" t="s">
         <v>304</v>
       </c>
       <c r="C310" t="s">
-        <v>680</v>
+        <v>847</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B311" t="s">
         <v>305</v>
       </c>
       <c r="C311" t="s">
-        <v>681</v>
+        <v>848</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B312" t="s">
         <v>306</v>
       </c>
       <c r="C312" t="s">
-        <v>682</v>
+        <v>849</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B313" t="s">
         <v>307</v>
       </c>
       <c r="C313" t="s">
-        <v>683</v>
+        <v>850</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B314" t="s">
         <v>308</v>
       </c>
       <c r="C314" t="s">
-        <v>684</v>
+        <v>851</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B315" t="s">
         <v>309</v>
       </c>
       <c r="C315" t="s">
-        <v>685</v>
+        <v>852</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B316" t="s">
         <v>310</v>
       </c>
       <c r="C316" t="s">
-        <v>686</v>
+        <v>853</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B317" t="s">
         <v>311</v>
       </c>
       <c r="C317" t="s">
-        <v>687</v>
+        <v>854</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B318" t="s">
         <v>312</v>
       </c>
       <c r="C318" t="s">
-        <v>688</v>
+        <v>855</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B319" t="s">
         <v>313</v>
       </c>
       <c r="C319" t="s">
-        <v>689</v>
+        <v>856</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B320" t="s">
         <v>314</v>
       </c>
       <c r="C320" t="s">
-        <v>690</v>
+        <v>857</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B321" t="s">
         <v>315</v>
       </c>
       <c r="C321" t="s">
-        <v>691</v>
+        <v>858</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B322" t="s">
         <v>316</v>
       </c>
       <c r="C322" t="s">
-        <v>692</v>
+        <v>859</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B323" t="s">
         <v>317</v>
       </c>
       <c r="C323" t="s">
-        <v>693</v>
+        <v>860</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B324" t="s">
         <v>318</v>
       </c>
       <c r="C324" t="s">
-        <v>694</v>
+        <v>861</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B325" t="s">
         <v>319</v>
       </c>
       <c r="C325" t="s">
-        <v>695</v>
+        <v>862</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B326" t="s">
         <v>320</v>
       </c>
       <c r="C326" t="s">
-        <v>696</v>
+        <v>863</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B327" t="s">
         <v>321</v>
       </c>
       <c r="C327" t="s">
-        <v>697</v>
+        <v>864</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B328" t="s">
         <v>322</v>
       </c>
       <c r="C328" t="s">
-        <v>698</v>
+        <v>865</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B329" t="s">
         <v>323</v>
       </c>
       <c r="C329" t="s">
-        <v>699</v>
+        <v>866</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B330" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C330" t="s">
-        <v>700</v>
+        <v>867</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B331" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C331" t="s">
-        <v>701</v>
+        <v>868</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B332" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C332" t="s">
-        <v>702</v>
+        <v>869</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B333" t="s">
         <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>703</v>
+        <v>870</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B334" t="s">
         <v>327</v>
       </c>
       <c r="C334" t="s">
-        <v>704</v>
+        <v>871</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B335" t="s">
         <v>328</v>
       </c>
       <c r="C335" t="s">
-        <v>705</v>
+        <v>872</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B336" t="s">
         <v>329</v>
       </c>
       <c r="C336" t="s">
-        <v>706</v>
+        <v>873</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B337" t="s">
         <v>330</v>
       </c>
       <c r="C337" t="s">
-        <v>707</v>
+        <v>874</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B338" t="s">
         <v>331</v>
       </c>
       <c r="C338" t="s">
-        <v>708</v>
+        <v>875</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B339" t="s">
         <v>332</v>
       </c>
       <c r="C339" t="s">
-        <v>709</v>
+        <v>876</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B340" t="s">
         <v>333</v>
       </c>
       <c r="C340" t="s">
-        <v>710</v>
+        <v>877</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B341" t="s">
         <v>334</v>
       </c>
       <c r="C341" t="s">
-        <v>711</v>
+        <v>878</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B342" t="s">
         <v>335</v>
       </c>
       <c r="C342" t="s">
-        <v>712</v>
+        <v>879</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B343" t="s">
         <v>336</v>
       </c>
       <c r="C343" t="s">
-        <v>713</v>
+        <v>880</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B344" t="s">
         <v>337</v>
       </c>
       <c r="C344" t="s">
-        <v>714</v>
+        <v>881</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B345" t="s">
         <v>338</v>
       </c>
       <c r="C345" t="s">
-        <v>715</v>
+        <v>882</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B346" t="s">
         <v>339</v>
       </c>
       <c r="C346" t="s">
-        <v>716</v>
+        <v>883</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B347" t="s">
         <v>340</v>
       </c>
       <c r="C347" t="s">
-        <v>717</v>
+        <v>884</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B348" t="s">
         <v>341</v>
       </c>
       <c r="C348" t="s">
-        <v>718</v>
+        <v>885</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B349" t="s">
         <v>342</v>
       </c>
       <c r="C349" t="s">
-        <v>719</v>
+        <v>886</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B350" t="s">
         <v>343</v>
       </c>
       <c r="C350" t="s">
-        <v>720</v>
+        <v>887</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B351" t="s">
         <v>344</v>
       </c>
       <c r="C351" t="s">
-        <v>721</v>
+        <v>888</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B352" t="s">
         <v>345</v>
       </c>
       <c r="C352" t="s">
-        <v>722</v>
+        <v>889</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B353" t="s">
         <v>346</v>
       </c>
       <c r="C353" t="s">
-        <v>723</v>
+        <v>890</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B354" t="s">
         <v>347</v>
       </c>
       <c r="C354" t="s">
-        <v>724</v>
+        <v>891</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B355" t="s">
         <v>348</v>
       </c>
       <c r="C355" t="s">
-        <v>725</v>
+        <v>892</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B356" t="s">
         <v>349</v>
       </c>
       <c r="C356" t="s">
-        <v>726</v>
+        <v>893</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B357" t="s">
         <v>350</v>
       </c>
       <c r="C357" t="s">
-        <v>727</v>
+        <v>894</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B358" t="s">
         <v>351</v>
       </c>
       <c r="C358" t="s">
-        <v>728</v>
+        <v>895</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B359" t="s">
         <v>352</v>
       </c>
       <c r="C359" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B360" t="s">
         <v>353</v>
       </c>
       <c r="C360" t="s">
-        <v>730</v>
+        <v>897</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B361" t="s">
         <v>354</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>898</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B362" t="s">
         <v>355</v>
       </c>
       <c r="C362" t="s">
-        <v>732</v>
+        <v>899</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B363" t="s">
         <v>356</v>
       </c>
       <c r="C363" t="s">
-        <v>733</v>
+        <v>900</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B364" t="s">
         <v>357</v>
       </c>
       <c r="C364" t="s">
-        <v>734</v>
+        <v>901</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B365" t="s">
         <v>358</v>
       </c>
       <c r="C365" t="s">
-        <v>735</v>
+        <v>902</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B366" t="s">
         <v>359</v>
       </c>
       <c r="C366" t="s">
-        <v>736</v>
+        <v>903</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B367" t="s">
         <v>360</v>
       </c>
       <c r="C367" t="s">
-        <v>737</v>
+        <v>904</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B368" t="s">
         <v>361</v>
       </c>
       <c r="C368" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B369" t="s">
         <v>362</v>
       </c>
       <c r="C369" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B370" t="s">
         <v>363</v>
       </c>
       <c r="C370" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B371" t="s">
         <v>364</v>
       </c>
       <c r="C371" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B372" t="s">
         <v>365</v>
       </c>
       <c r="C372" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B373" t="s">
         <v>366</v>
       </c>
       <c r="C373" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B374" t="s">
         <v>367</v>
       </c>
       <c r="C374" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B375" t="s">
+        <v>177</v>
+      </c>
+      <c r="C375" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376">
+        <v>1138</v>
+      </c>
+      <c r="B376" t="s">
         <v>368</v>
       </c>
-      <c r="C375" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376">
-        <v>1136</v>
-      </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377">
+        <v>1139</v>
+      </c>
+      <c r="B377" t="s">
+        <v>146</v>
+      </c>
+      <c r="C377" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378">
+        <v>1141</v>
+      </c>
+      <c r="B378" t="s">
         <v>369</v>
       </c>
-      <c r="C376" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377">
-        <v>1137</v>
-      </c>
-      <c r="B377" t="s">
-        <v>178</v>
-      </c>
-      <c r="C377" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378">
-        <v>1138</v>
-      </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379">
+        <v>1150</v>
+      </c>
+      <c r="B379" t="s">
         <v>370</v>
       </c>
-      <c r="C378" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379">
-        <v>1139</v>
-      </c>
-      <c r="B379" t="s">
-        <v>147</v>
-      </c>
       <c r="C379" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <v>916</v>
+      </c>
+      <c r="D379">
+        <v>24</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B380" t="s">
         <v>371</v>
       </c>
       <c r="C380" t="s">
-        <v>750</v>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381">
+        <v>1152</v>
+      </c>
+      <c r="B381" t="s">
+        <v>372</v>
+      </c>
+      <c r="C381" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382">
+        <v>1153</v>
+      </c>
+      <c r="B382" t="s">
+        <v>373</v>
+      </c>
+      <c r="C382" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383">
+        <v>1154</v>
+      </c>
+      <c r="B383" t="s">
+        <v>374</v>
+      </c>
+      <c r="C383" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384">
+        <v>1155</v>
+      </c>
+      <c r="B384" t="s">
+        <v>375</v>
+      </c>
+      <c r="C384" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385">
+        <v>1156</v>
+      </c>
+      <c r="B385" t="s">
+        <v>376</v>
+      </c>
+      <c r="C385" t="s">
+        <v>922</v>
+      </c>
+      <c r="D385">
+        <v>25</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386">
+        <v>1158</v>
+      </c>
+      <c r="B386" t="s">
+        <v>377</v>
+      </c>
+      <c r="C386" t="s">
+        <v>923</v>
+      </c>
+      <c r="D386">
+        <v>26</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387">
+        <v>1160</v>
+      </c>
+      <c r="B387" t="s">
+        <v>378</v>
+      </c>
+      <c r="C387" t="s">
+        <v>924</v>
+      </c>
+      <c r="D387">
+        <v>27</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388">
+        <v>1162</v>
+      </c>
+      <c r="B388" t="s">
+        <v>379</v>
+      </c>
+      <c r="C388" t="s">
+        <v>925</v>
+      </c>
+      <c r="D388">
+        <v>28</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389">
+        <v>1164</v>
+      </c>
+      <c r="B389" t="s">
+        <v>380</v>
+      </c>
+      <c r="C389" t="s">
+        <v>926</v>
+      </c>
+      <c r="D389">
+        <v>29</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390">
+        <v>1166</v>
+      </c>
+      <c r="B390" t="s">
+        <v>381</v>
+      </c>
+      <c r="C390" t="s">
+        <v>927</v>
+      </c>
+      <c r="D390">
+        <v>30</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391">
+        <v>1168</v>
+      </c>
+      <c r="B391" t="s">
+        <v>382</v>
+      </c>
+      <c r="C391" t="s">
+        <v>928</v>
+      </c>
+      <c r="D391">
+        <v>31</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392">
+        <v>1170</v>
+      </c>
+      <c r="B392" t="s">
+        <v>383</v>
+      </c>
+      <c r="C392" t="s">
+        <v>929</v>
+      </c>
+      <c r="D392">
+        <v>32</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393">
+        <v>1172</v>
+      </c>
+      <c r="B393" t="s">
+        <v>384</v>
+      </c>
+      <c r="C393" t="s">
+        <v>930</v>
+      </c>
+      <c r="D393">
+        <v>33</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394">
+        <v>1174</v>
+      </c>
+      <c r="B394" t="s">
+        <v>385</v>
+      </c>
+      <c r="C394" t="s">
+        <v>931</v>
+      </c>
+      <c r="D394">
+        <v>34</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395">
+        <v>1176</v>
+      </c>
+      <c r="B395" t="s">
+        <v>386</v>
+      </c>
+      <c r="C395" t="s">
+        <v>932</v>
+      </c>
+      <c r="D395">
+        <v>35</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396">
+        <v>1178</v>
+      </c>
+      <c r="B396" t="s">
+        <v>387</v>
+      </c>
+      <c r="C396" t="s">
+        <v>933</v>
+      </c>
+      <c r="D396">
+        <v>36</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397">
+        <v>1180</v>
+      </c>
+      <c r="B397" t="s">
+        <v>388</v>
+      </c>
+      <c r="C397" t="s">
+        <v>934</v>
+      </c>
+      <c r="D397">
+        <v>37</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398">
+        <v>1182</v>
+      </c>
+      <c r="B398" t="s">
+        <v>75</v>
+      </c>
+      <c r="C398" t="s">
+        <v>611</v>
+      </c>
+      <c r="D398">
+        <v>38</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399">
+        <v>1184</v>
+      </c>
+      <c r="B399" t="s">
+        <v>370</v>
+      </c>
+      <c r="C399" t="s">
+        <v>935</v>
+      </c>
+      <c r="D399">
+        <v>39</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400">
+        <v>1186</v>
+      </c>
+      <c r="B400" t="s">
+        <v>389</v>
+      </c>
+      <c r="C400" t="s">
+        <v>936</v>
+      </c>
+      <c r="D400">
+        <v>40</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401">
+        <v>1187</v>
+      </c>
+      <c r="B401" t="s">
+        <v>390</v>
+      </c>
+      <c r="C401" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402">
+        <v>1188</v>
+      </c>
+      <c r="B402" t="s">
+        <v>391</v>
+      </c>
+      <c r="C402" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403">
+        <v>1189</v>
+      </c>
+      <c r="B403" t="s">
+        <v>392</v>
+      </c>
+      <c r="C403" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404">
+        <v>1190</v>
+      </c>
+      <c r="B404" t="s">
+        <v>393</v>
+      </c>
+      <c r="C404" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405">
+        <v>1191</v>
+      </c>
+      <c r="B405" t="s">
+        <v>394</v>
+      </c>
+      <c r="C405" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406">
+        <v>1192</v>
+      </c>
+      <c r="B406" t="s">
+        <v>395</v>
+      </c>
+      <c r="C406" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407">
+        <v>1193</v>
+      </c>
+      <c r="B407" t="s">
+        <v>396</v>
+      </c>
+      <c r="C407" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408">
+        <v>1194</v>
+      </c>
+      <c r="B408" t="s">
+        <v>397</v>
+      </c>
+      <c r="C408" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409">
+        <v>1195</v>
+      </c>
+      <c r="B409" t="s">
+        <v>398</v>
+      </c>
+      <c r="C409" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410">
+        <v>1196</v>
+      </c>
+      <c r="B410" t="s">
+        <v>399</v>
+      </c>
+      <c r="C410" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411">
+        <v>1197</v>
+      </c>
+      <c r="B411" t="s">
+        <v>400</v>
+      </c>
+      <c r="C411" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412">
+        <v>1198</v>
+      </c>
+      <c r="B412" t="s">
+        <v>401</v>
+      </c>
+      <c r="C412" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413">
+        <v>1199</v>
+      </c>
+      <c r="B413" t="s">
+        <v>402</v>
+      </c>
+      <c r="C413" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414">
+        <v>1200</v>
+      </c>
+      <c r="B414" t="s">
+        <v>403</v>
+      </c>
+      <c r="C414" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415">
+        <v>1201</v>
+      </c>
+      <c r="B415" t="s">
+        <v>404</v>
+      </c>
+      <c r="C415" t="s">
+        <v>951</v>
+      </c>
+      <c r="D415">
+        <v>41</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416">
+        <v>1202</v>
+      </c>
+      <c r="B416" t="s">
+        <v>405</v>
+      </c>
+      <c r="C416" t="s">
+        <v>952</v>
+      </c>
+      <c r="D416">
+        <v>42</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417">
+        <v>1204</v>
+      </c>
+      <c r="B417" t="s">
+        <v>406</v>
+      </c>
+      <c r="C417" t="s">
+        <v>953</v>
+      </c>
+      <c r="D417">
+        <v>44</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418">
+        <v>1205</v>
+      </c>
+      <c r="B418" t="s">
+        <v>407</v>
+      </c>
+      <c r="C418" t="s">
+        <v>954</v>
+      </c>
+      <c r="D418">
+        <v>45</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419">
+        <v>1206</v>
+      </c>
+      <c r="B419" t="s">
+        <v>408</v>
+      </c>
+      <c r="C419" t="s">
+        <v>955</v>
+      </c>
+      <c r="D419">
+        <v>46</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420">
+        <v>1208</v>
+      </c>
+      <c r="B420" t="s">
+        <v>409</v>
+      </c>
+      <c r="C420" t="s">
+        <v>956</v>
+      </c>
+      <c r="D420">
+        <v>48</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421">
+        <v>1209</v>
+      </c>
+      <c r="B421" t="s">
+        <v>410</v>
+      </c>
+      <c r="C421" t="s">
+        <v>957</v>
+      </c>
+      <c r="D421">
+        <v>49</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422">
+        <v>1210</v>
+      </c>
+      <c r="B422" t="s">
+        <v>411</v>
+      </c>
+      <c r="C422" t="s">
+        <v>958</v>
+      </c>
+      <c r="D422">
+        <v>50</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423">
+        <v>1211</v>
+      </c>
+      <c r="B423" t="s">
+        <v>412</v>
+      </c>
+      <c r="C423" t="s">
+        <v>959</v>
+      </c>
+      <c r="D423">
+        <v>51</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424">
+        <v>1212</v>
+      </c>
+      <c r="B424" t="s">
+        <v>413</v>
+      </c>
+      <c r="C424" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425">
+        <v>1213</v>
+      </c>
+      <c r="B425" t="s">
+        <v>414</v>
+      </c>
+      <c r="C425" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426">
+        <v>1214</v>
+      </c>
+      <c r="B426" t="s">
+        <v>415</v>
+      </c>
+      <c r="C426" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427">
+        <v>1215</v>
+      </c>
+      <c r="B427" t="s">
+        <v>416</v>
+      </c>
+      <c r="C427" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428">
+        <v>1216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>417</v>
+      </c>
+      <c r="C428" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429">
+        <v>1217</v>
+      </c>
+      <c r="B429" t="s">
+        <v>418</v>
+      </c>
+      <c r="C429" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430">
+        <v>1218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>419</v>
+      </c>
+      <c r="C430" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431">
+        <v>1219</v>
+      </c>
+      <c r="B431" t="s">
+        <v>420</v>
+      </c>
+      <c r="C431" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432">
+        <v>1220</v>
+      </c>
+      <c r="B432" t="s">
+        <v>421</v>
+      </c>
+      <c r="C432" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>1221</v>
+      </c>
+      <c r="B433" t="s">
+        <v>422</v>
+      </c>
+      <c r="C433" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>1222</v>
+      </c>
+      <c r="B434" t="s">
+        <v>423</v>
+      </c>
+      <c r="C434" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>1223</v>
+      </c>
+      <c r="B435" t="s">
+        <v>424</v>
+      </c>
+      <c r="C435" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>1224</v>
+      </c>
+      <c r="B436" t="s">
+        <v>425</v>
+      </c>
+      <c r="C436" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>1225</v>
+      </c>
+      <c r="B437" t="s">
+        <v>426</v>
+      </c>
+      <c r="C437" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>1226</v>
+      </c>
+      <c r="B438" t="s">
+        <v>427</v>
+      </c>
+      <c r="C438" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>1227</v>
+      </c>
+      <c r="B439" t="s">
+        <v>428</v>
+      </c>
+      <c r="C439" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>1228</v>
+      </c>
+      <c r="B440" t="s">
+        <v>429</v>
+      </c>
+      <c r="C440" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>1229</v>
+      </c>
+      <c r="B441" t="s">
+        <v>430</v>
+      </c>
+      <c r="C441" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>1230</v>
+      </c>
+      <c r="B442" t="s">
+        <v>431</v>
+      </c>
+      <c r="C442" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>1231</v>
+      </c>
+      <c r="B443" t="s">
+        <v>432</v>
+      </c>
+      <c r="C443" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>1232</v>
+      </c>
+      <c r="B444" t="s">
+        <v>433</v>
+      </c>
+      <c r="C444" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>1233</v>
+      </c>
+      <c r="B445" t="s">
+        <v>434</v>
+      </c>
+      <c r="C445" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>1234</v>
+      </c>
+      <c r="B446" t="s">
+        <v>435</v>
+      </c>
+      <c r="C446" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>1235</v>
+      </c>
+      <c r="B447" t="s">
+        <v>436</v>
+      </c>
+      <c r="C447" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>1236</v>
+      </c>
+      <c r="B448" t="s">
+        <v>437</v>
+      </c>
+      <c r="C448" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>1237</v>
+      </c>
+      <c r="B449" t="s">
+        <v>438</v>
+      </c>
+      <c r="C449" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>1238</v>
+      </c>
+      <c r="B450" t="s">
+        <v>439</v>
+      </c>
+      <c r="C450" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>1239</v>
+      </c>
+      <c r="B451" t="s">
+        <v>440</v>
+      </c>
+      <c r="C451" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>1240</v>
+      </c>
+      <c r="B452" t="s">
+        <v>441</v>
+      </c>
+      <c r="C452" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>1241</v>
+      </c>
+      <c r="B453" t="s">
+        <v>442</v>
+      </c>
+      <c r="C453" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>1242</v>
+      </c>
+      <c r="B454" t="s">
+        <v>443</v>
+      </c>
+      <c r="C454" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>1243</v>
+      </c>
+      <c r="B455" t="s">
+        <v>444</v>
+      </c>
+      <c r="C455" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>1244</v>
+      </c>
+      <c r="B456" t="s">
+        <v>445</v>
+      </c>
+      <c r="C456" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>1245</v>
+      </c>
+      <c r="B457" t="s">
+        <v>446</v>
+      </c>
+      <c r="C457" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>1246</v>
+      </c>
+      <c r="B458" t="s">
+        <v>447</v>
+      </c>
+      <c r="C458" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>1247</v>
+      </c>
+      <c r="B459" t="s">
+        <v>448</v>
+      </c>
+      <c r="C459" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>1248</v>
+      </c>
+      <c r="B460" t="s">
+        <v>449</v>
+      </c>
+      <c r="C460" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>1249</v>
+      </c>
+      <c r="B461" t="s">
+        <v>450</v>
+      </c>
+      <c r="C461" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>1250</v>
+      </c>
+      <c r="B462" t="s">
+        <v>451</v>
+      </c>
+      <c r="C462" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>1251</v>
+      </c>
+      <c r="B463" t="s">
+        <v>452</v>
+      </c>
+      <c r="C463" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>1252</v>
+      </c>
+      <c r="B464" t="s">
+        <v>453</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>1253</v>
+      </c>
+      <c r="B465" t="s">
+        <v>454</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>1254</v>
+      </c>
+      <c r="B466" t="s">
+        <v>455</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>1255</v>
+      </c>
+      <c r="B467" t="s">
+        <v>456</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>1256</v>
+      </c>
+      <c r="B468" t="s">
+        <v>457</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>1257</v>
+      </c>
+      <c r="B469" t="s">
+        <v>458</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>1258</v>
+      </c>
+      <c r="B470" t="s">
+        <v>459</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>1259</v>
+      </c>
+      <c r="B471" t="s">
+        <v>460</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>1260</v>
+      </c>
+      <c r="B472" t="s">
+        <v>461</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>1261</v>
+      </c>
+      <c r="B473" t="s">
+        <v>462</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>1262</v>
+      </c>
+      <c r="B474" t="s">
+        <v>463</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>1263</v>
+      </c>
+      <c r="B475" t="s">
+        <v>464</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>1264</v>
+      </c>
+      <c r="B476" t="s">
+        <v>465</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>1265</v>
+      </c>
+      <c r="B477" t="s">
+        <v>466</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>1266</v>
+      </c>
+      <c r="B478" t="s">
+        <v>467</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>1267</v>
+      </c>
+      <c r="B479" t="s">
+        <v>468</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>1268</v>
+      </c>
+      <c r="B480" t="s">
+        <v>469</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>1269</v>
+      </c>
+      <c r="B481" t="s">
+        <v>470</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>1270</v>
+      </c>
+      <c r="B482" t="s">
+        <v>471</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>1271</v>
+      </c>
+      <c r="B483" t="s">
+        <v>472</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>1272</v>
+      </c>
+      <c r="B484" t="s">
+        <v>473</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>1273</v>
+      </c>
+      <c r="B485" t="s">
+        <v>474</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>1274</v>
+      </c>
+      <c r="B486" t="s">
+        <v>475</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>1275</v>
+      </c>
+      <c r="B487" t="s">
+        <v>476</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>1276</v>
+      </c>
+      <c r="B488" t="s">
+        <v>477</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>1277</v>
+      </c>
+      <c r="B489" t="s">
+        <v>478</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>1278</v>
+      </c>
+      <c r="B490" t="s">
+        <v>460</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491">
+        <v>1279</v>
+      </c>
+      <c r="B491" t="s">
+        <v>479</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492">
+        <v>1280</v>
+      </c>
+      <c r="B492" t="s">
+        <v>69</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493">
+        <v>1281</v>
+      </c>
+      <c r="B493" t="s">
+        <v>480</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494">
+        <v>1282</v>
+      </c>
+      <c r="B494" t="s">
+        <v>481</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495">
+        <v>1283</v>
+      </c>
+      <c r="B495" t="s">
+        <v>482</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>1284</v>
+      </c>
+      <c r="B496" t="s">
+        <v>483</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497">
+        <v>1285</v>
+      </c>
+      <c r="B497" t="s">
+        <v>484</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498">
+        <v>1286</v>
+      </c>
+      <c r="B498" t="s">
+        <v>485</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499">
+        <v>1287</v>
+      </c>
+      <c r="B499" t="s">
+        <v>486</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500">
+        <v>1288</v>
+      </c>
+      <c r="B500" t="s">
+        <v>487</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501">
+        <v>1289</v>
+      </c>
+      <c r="B501" t="s">
+        <v>488</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502">
+        <v>1290</v>
+      </c>
+      <c r="B502" t="s">
+        <v>489</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503">
+        <v>1291</v>
+      </c>
+      <c r="B503" t="s">
+        <v>490</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504">
+        <v>1292</v>
+      </c>
+      <c r="B504" t="s">
+        <v>491</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505">
+        <v>1293</v>
+      </c>
+      <c r="B505" t="s">
+        <v>492</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506">
+        <v>1294</v>
+      </c>
+      <c r="B506" t="s">
+        <v>493</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507">
+        <v>1295</v>
+      </c>
+      <c r="B507" t="s">
+        <v>494</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508">
+        <v>1296</v>
+      </c>
+      <c r="B508" t="s">
+        <v>495</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509">
+        <v>1297</v>
+      </c>
+      <c r="B509" t="s">
+        <v>496</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>1298</v>
+      </c>
+      <c r="B510" t="s">
+        <v>497</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511">
+        <v>1299</v>
+      </c>
+      <c r="B511" t="s">
+        <v>498</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512">
+        <v>1300</v>
+      </c>
+      <c r="B512" t="s">
+        <v>499</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513">
+        <v>1301</v>
+      </c>
+      <c r="B513" t="s">
+        <v>500</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514">
+        <v>1302</v>
+      </c>
+      <c r="B514" t="s">
+        <v>501</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515">
+        <v>1303</v>
+      </c>
+      <c r="B515" t="s">
+        <v>502</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516">
+        <v>1304</v>
+      </c>
+      <c r="B516" t="s">
+        <v>503</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517">
+        <v>1305</v>
+      </c>
+      <c r="B517" t="s">
+        <v>504</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518">
+        <v>1306</v>
+      </c>
+      <c r="B518" t="s">
+        <v>505</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519">
+        <v>1307</v>
+      </c>
+      <c r="B519" t="s">
+        <v>506</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520">
+        <v>1308</v>
+      </c>
+      <c r="B520" t="s">
+        <v>507</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521">
+        <v>1309</v>
+      </c>
+      <c r="B521" t="s">
+        <v>178</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522">
+        <v>1310</v>
+      </c>
+      <c r="B522" t="s">
+        <v>508</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523">
+        <v>1311</v>
+      </c>
+      <c r="B523" t="s">
+        <v>509</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>1312</v>
+      </c>
+      <c r="B524" t="s">
+        <v>510</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525">
+        <v>1313</v>
+      </c>
+      <c r="B525" t="s">
+        <v>511</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526">
+        <v>1314</v>
+      </c>
+      <c r="B526" t="s">
+        <v>512</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527">
+        <v>1315</v>
+      </c>
+      <c r="B527" t="s">
+        <v>513</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528">
+        <v>1316</v>
+      </c>
+      <c r="B528" t="s">
+        <v>514</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529">
+        <v>1317</v>
+      </c>
+      <c r="B529" t="s">
+        <v>515</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530">
+        <v>1318</v>
+      </c>
+      <c r="B530" t="s">
+        <v>516</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531">
+        <v>1319</v>
+      </c>
+      <c r="B531" t="s">
+        <v>517</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532">
+        <v>1320</v>
+      </c>
+      <c r="B532" t="s">
+        <v>518</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533">
+        <v>1321</v>
+      </c>
+      <c r="B533" t="s">
+        <v>519</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534">
+        <v>1322</v>
+      </c>
+      <c r="B534" t="s">
+        <v>520</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535">
+        <v>1323</v>
+      </c>
+      <c r="B535" t="s">
+        <v>521</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536">
+        <v>1324</v>
+      </c>
+      <c r="B536" t="s">
+        <v>522</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537">
+        <v>1325</v>
+      </c>
+      <c r="B537" t="s">
+        <v>523</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538">
+        <v>1326</v>
+      </c>
+      <c r="B538" t="s">
+        <v>524</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539">
+        <v>1327</v>
+      </c>
+      <c r="B539" t="s">
+        <v>525</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540">
+        <v>1328</v>
+      </c>
+      <c r="B540" t="s">
+        <v>526</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541">
+        <v>1329</v>
+      </c>
+      <c r="B541" t="s">
+        <v>527</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542">
+        <v>1330</v>
+      </c>
+      <c r="B542" t="s">
+        <v>528</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543">
+        <v>1331</v>
+      </c>
+      <c r="B543" t="s">
+        <v>529</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544">
+        <v>1332</v>
+      </c>
+      <c r="B544" t="s">
+        <v>530</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545">
+        <v>1333</v>
+      </c>
+      <c r="B545" t="s">
+        <v>531</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546">
+        <v>1334</v>
+      </c>
+      <c r="B546" t="s">
+        <v>532</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547">
+        <v>1335</v>
+      </c>
+      <c r="B547" t="s">
+        <v>533</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548">
+        <v>1336</v>
+      </c>
+      <c r="B548" t="s">
+        <v>534</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549">
+        <v>1337</v>
+      </c>
+      <c r="B549" t="s">
+        <v>535</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>1338</v>
+      </c>
+      <c r="B550" t="s">
+        <v>536</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551">
+        <v>1339</v>
+      </c>
+      <c r="B551" t="s">
+        <v>380</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552">
+        <v>1340</v>
+      </c>
+      <c r="B552" t="s">
+        <v>537</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553">
+        <v>1341</v>
+      </c>
+      <c r="B553" t="s">
+        <v>538</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/public/advisors.xlsx
+++ b/public/advisors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1122">
   <si>
     <t>idAdvisor</t>
   </si>
@@ -31,6 +31,9 @@
     <t>affiliation</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>Hoàng Xuân Tùng</t>
   </si>
   <si>
@@ -961,7 +964,7 @@
     <t>Nguyễn Quang Minh</t>
   </si>
   <si>
-    <t>Mai</t>
+    <t>Mai Thanh Minh</t>
   </si>
   <si>
     <t>Nguyễn Đình Tuân</t>
@@ -2815,7 +2818,7 @@
     <t>khainn10@gmail.com</t>
   </si>
   <si>
-    <t>lehonglam.skv@gmai.com</t>
+    <t>lehonglam.skv@gmail.com</t>
   </si>
   <si>
     <t>vosynam@gmail.com</t>
@@ -3359,6 +3362,24 @@
   </si>
   <si>
     <t>Học Viện KTQS</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>PGS.TS</t>
+  </si>
+  <si>
+    <t>ThS</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>HVCH</t>
+  </si>
+  <si>
+    <t>CN</t>
   </si>
 </sst>
 </file>
@@ -3716,13 +3737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E553"/>
+  <dimension ref="A1:F553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,880 +3759,994 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>540</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1091</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>542</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>543</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>764</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>765</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>766</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>767</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>768</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>770</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>771</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>772</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>773</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>774</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>775</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>776</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>777</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>778</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>779</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>780</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>781</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>782</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>562</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>783</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>784</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>564</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>785</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>565</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>786</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>787</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>567</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>788</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>568</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>789</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>569</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>790</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>570</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>791</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>792</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>572</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>793</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>794</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>795</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>575</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>796</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>576</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>797</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>577</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>798</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>578</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>799</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>579</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>800</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>801</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>581</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>802</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>582</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>803</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>804</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>805</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>585</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>806</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>807</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>587</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>808</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>809</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>589</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>810</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>811</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>591</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>812</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>813</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>814</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>815</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>816</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>596</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>817</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>597</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>818</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>819</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>599</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>820</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>821</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>822</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>602</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>823</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>824</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>604</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>825</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>826</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>606</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>827</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>607</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>828</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>608</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>829</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>609</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>830</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>610</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>831</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>611</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>832</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>833</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>613</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>834</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>835</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>836</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>837</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>617</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>838</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4619,10 +4754,10 @@
         <v>839</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4630,10 +4765,10 @@
         <v>840</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4641,10 +4776,10 @@
         <v>841</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4652,10 +4787,10 @@
         <v>842</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4663,10 +4798,10 @@
         <v>843</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4674,10 +4809,10 @@
         <v>844</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4685,10 +4820,10 @@
         <v>845</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4696,10 +4831,10 @@
         <v>846</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4707,10 +4842,10 @@
         <v>847</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4718,10 +4853,10 @@
         <v>848</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4729,10 +4864,10 @@
         <v>849</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4740,10 +4875,10 @@
         <v>850</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4751,10 +4886,10 @@
         <v>851</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4762,10 +4897,10 @@
         <v>852</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4773,10 +4908,10 @@
         <v>853</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4784,10 +4919,10 @@
         <v>854</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4795,10 +4930,10 @@
         <v>855</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4806,10 +4941,10 @@
         <v>856</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4817,10 +4952,10 @@
         <v>857</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4828,10 +4963,10 @@
         <v>858</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4839,10 +4974,10 @@
         <v>859</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4850,10 +4985,10 @@
         <v>860</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4861,10 +4996,10 @@
         <v>861</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4872,10 +5007,10 @@
         <v>862</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4883,10 +5018,10 @@
         <v>863</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4894,10 +5029,10 @@
         <v>864</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4905,10 +5040,10 @@
         <v>865</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4916,10 +5051,10 @@
         <v>866</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4927,10 +5062,10 @@
         <v>867</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4938,10 +5073,10 @@
         <v>868</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4949,10 +5084,10 @@
         <v>869</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4960,714 +5095,747 @@
         <v>870</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>871</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>872</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>873</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>874</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>875</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>876</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>877</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>878</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>879</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>880</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>881</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>882</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>883</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>884</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>664</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>885</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>886</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>887</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>888</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>889</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>890</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>891</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>892</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>893</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>894</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>674</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>895</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>896</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>897</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>898</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>899</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>900</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>901</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>902</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>682</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>903</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>904</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>905</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>906</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>907</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>687</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>908</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>909</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>689</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>910</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>911</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>691</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>912</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>913</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>914</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>694</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>915</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>916</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>917</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>918</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>698</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>919</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>699</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>920</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>700</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>921</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>922</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>923</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>924</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>925</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>926</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>927</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>928</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>929</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>930</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>931</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>932</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>712</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>933</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>934</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5675,10 +5843,10 @@
         <v>935</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5686,10 +5854,10 @@
         <v>936</v>
       </c>
       <c r="B178" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C178" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5697,10 +5865,10 @@
         <v>937</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5708,10 +5876,10 @@
         <v>938</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5719,10 +5887,10 @@
         <v>939</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5730,10 +5898,10 @@
         <v>940</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5741,10 +5909,10 @@
         <v>941</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5752,10 +5920,10 @@
         <v>942</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5763,10 +5931,10 @@
         <v>943</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5774,10 +5942,10 @@
         <v>944</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5785,10 +5953,10 @@
         <v>945</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5796,10 +5964,10 @@
         <v>946</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5807,10 +5975,10 @@
         <v>947</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5818,10 +5986,10 @@
         <v>948</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5829,10 +5997,10 @@
         <v>949</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5840,362 +6008,371 @@
         <v>950</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>951</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>952</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>953</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>954</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>955</v>
       </c>
       <c r="B197" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C197" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>735</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>956</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>957</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>958</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>959</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>739</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>960</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>961</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>962</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>963</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>964</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>965</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>966</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>967</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>968</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>969</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>970</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>971</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>973</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>974</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>975</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>976</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>977</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>978</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>979</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>758</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>980</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>981</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>982</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>983</v>
       </c>
       <c r="B224" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6203,10 +6380,10 @@
         <v>984</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6214,10 +6391,10 @@
         <v>985</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6225,10 +6402,10 @@
         <v>986</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6236,10 +6413,10 @@
         <v>987</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6247,10 +6424,10 @@
         <v>988</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6258,10 +6435,10 @@
         <v>990</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6269,10 +6446,10 @@
         <v>991</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6280,10 +6457,10 @@
         <v>992</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6291,10 +6468,10 @@
         <v>993</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6302,10 +6479,10 @@
         <v>994</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6313,10 +6490,10 @@
         <v>995</v>
       </c>
       <c r="B235" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6324,10 +6501,10 @@
         <v>996</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6335,10 +6512,10 @@
         <v>997</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6346,10 +6523,10 @@
         <v>998</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6357,10 +6534,10 @@
         <v>999</v>
       </c>
       <c r="B239" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6368,2982 +6545,3168 @@
         <v>1000</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>1001</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>779</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>1002</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>780</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>1003</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>1004</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>1005</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>1006</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>784</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>1007</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>1008</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>1009</v>
       </c>
       <c r="B249" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>787</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>1010</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>1011</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>1013</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>1014</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>1015</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>1016</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>1017</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>1018</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>1019</v>
       </c>
       <c r="B258" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C258" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>1020</v>
       </c>
       <c r="B259" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>1021</v>
       </c>
       <c r="B260" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>1022</v>
       </c>
       <c r="B261" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>1023</v>
       </c>
       <c r="B262" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>1024</v>
       </c>
       <c r="B263" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>1025</v>
       </c>
       <c r="B264" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>1026</v>
       </c>
       <c r="B265" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>1027</v>
       </c>
       <c r="B266" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>1028</v>
       </c>
       <c r="B267" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>1029</v>
       </c>
       <c r="B268" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>1030</v>
       </c>
       <c r="B269" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>1031</v>
       </c>
       <c r="B270" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>1032</v>
       </c>
       <c r="B271" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>809</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>1033</v>
       </c>
       <c r="B272" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>1034</v>
       </c>
       <c r="B273" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>811</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>1035</v>
       </c>
       <c r="B274" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>1036</v>
       </c>
       <c r="B275" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>1037</v>
       </c>
       <c r="B276" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>1038</v>
       </c>
       <c r="B277" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>1039</v>
       </c>
       <c r="B278" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C278" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>1040</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>1041</v>
       </c>
       <c r="B280" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C280" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>1042</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>819</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>1043</v>
       </c>
       <c r="B282" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C282" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>820</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>1044</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C283" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>1045</v>
       </c>
       <c r="B284" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C284" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>822</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>1046</v>
       </c>
       <c r="B285" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C285" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>1047</v>
       </c>
       <c r="B286" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C286" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>824</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>1048</v>
       </c>
       <c r="B287" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C287" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>1049</v>
       </c>
       <c r="B288" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>1050</v>
       </c>
       <c r="B289" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>1051</v>
       </c>
       <c r="B290" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>1052</v>
       </c>
       <c r="B291" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>1053</v>
       </c>
       <c r="B292" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>1054</v>
       </c>
       <c r="B293" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>1055</v>
       </c>
       <c r="B294" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C294" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>1056</v>
       </c>
       <c r="B295" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C295" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>1057</v>
       </c>
       <c r="B296" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C296" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>1058</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C297" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>1059</v>
       </c>
       <c r="B298" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C298" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>1060</v>
       </c>
       <c r="B299" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C299" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>1061</v>
       </c>
       <c r="B300" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C300" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>1062</v>
       </c>
       <c r="B301" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C301" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>839</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>1063</v>
       </c>
       <c r="B302" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C302" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>1064</v>
       </c>
       <c r="B303" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C303" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>1065</v>
       </c>
       <c r="B304" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C304" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>1066</v>
       </c>
       <c r="B305" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C305" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>1067</v>
       </c>
       <c r="B306" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C306" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>1068</v>
       </c>
       <c r="B307" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C307" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>1069</v>
       </c>
       <c r="B308" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C308" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>1070</v>
       </c>
       <c r="B309" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C309" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>1071</v>
       </c>
       <c r="B310" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C310" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>1072</v>
       </c>
       <c r="B311" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C311" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>849</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>1073</v>
       </c>
       <c r="B312" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C312" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>850</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>1074</v>
       </c>
       <c r="B313" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C313" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>1075</v>
       </c>
       <c r="B314" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C314" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>1076</v>
       </c>
       <c r="B315" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C315" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>1077</v>
       </c>
       <c r="B316" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C316" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>1078</v>
       </c>
       <c r="B317" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C317" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>1079</v>
       </c>
       <c r="B318" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C318" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>1080</v>
       </c>
       <c r="B319" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C319" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>857</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>1081</v>
       </c>
       <c r="B320" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C320" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>858</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>1082</v>
       </c>
       <c r="B321" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C321" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>859</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>1083</v>
       </c>
       <c r="B322" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C322" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>860</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>1084</v>
       </c>
       <c r="B323" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C323" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>1085</v>
       </c>
       <c r="B324" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C324" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>1086</v>
       </c>
       <c r="B325" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C325" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>1087</v>
       </c>
       <c r="B326" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C326" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>864</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>1088</v>
       </c>
       <c r="B327" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C327" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>1089</v>
       </c>
       <c r="B328" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C328" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>1090</v>
       </c>
       <c r="B329" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C329" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>1091</v>
       </c>
       <c r="B330" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C330" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>1092</v>
       </c>
       <c r="B331" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>1093</v>
       </c>
       <c r="B332" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>870</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>1094</v>
       </c>
       <c r="B333" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>1095</v>
       </c>
       <c r="B334" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C334" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>1096</v>
       </c>
       <c r="B335" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C335" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>1097</v>
       </c>
       <c r="B336" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C336" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>1098</v>
       </c>
       <c r="B337" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C337" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>1099</v>
       </c>
       <c r="B338" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C338" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>1100</v>
       </c>
       <c r="B339" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C339" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>877</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>1101</v>
       </c>
       <c r="B340" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C340" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>1102</v>
       </c>
       <c r="B341" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C341" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>1104</v>
       </c>
       <c r="B342" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C342" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>1105</v>
       </c>
       <c r="B343" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C343" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>1106</v>
       </c>
       <c r="B344" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C344" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>1107</v>
       </c>
       <c r="B345" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C345" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>1108</v>
       </c>
       <c r="B346" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C346" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>1109</v>
       </c>
       <c r="B347" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C347" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>1110</v>
       </c>
       <c r="B348" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C348" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>1111</v>
       </c>
       <c r="B349" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C349" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>1112</v>
       </c>
       <c r="B350" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C350" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>1113</v>
       </c>
       <c r="B351" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C351" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>1114</v>
       </c>
       <c r="B352" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C352" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>1115</v>
       </c>
       <c r="B353" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C353" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>1116</v>
       </c>
       <c r="B354" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C354" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>1117</v>
       </c>
       <c r="B355" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C355" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>1118</v>
       </c>
       <c r="B356" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C356" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357">
         <v>1119</v>
       </c>
       <c r="B357" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C357" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358">
         <v>1120</v>
       </c>
       <c r="B358" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C358" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>896</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359">
         <v>1121</v>
       </c>
       <c r="B359" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C359" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <v>897</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360">
         <v>1122</v>
       </c>
       <c r="B360" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C360" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361">
         <v>1123</v>
       </c>
       <c r="B361" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C361" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+        <v>899</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362">
         <v>1124</v>
       </c>
       <c r="B362" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C362" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
+        <v>900</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>1125</v>
       </c>
       <c r="B363" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C363" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>1126</v>
       </c>
       <c r="B364" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C364" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <v>902</v>
+      </c>
+      <c r="F364" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365">
         <v>1127</v>
       </c>
       <c r="B365" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C365" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>1128</v>
       </c>
       <c r="B366" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C366" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>1129</v>
       </c>
       <c r="B367" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C367" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368">
         <v>1130</v>
       </c>
       <c r="B368" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C368" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>1131</v>
       </c>
       <c r="B369" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C369" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370">
         <v>1132</v>
       </c>
       <c r="B370" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C370" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>1133</v>
       </c>
       <c r="B371" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C371" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>1134</v>
       </c>
       <c r="B372" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C372" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>1135</v>
       </c>
       <c r="B373" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C373" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>1136</v>
       </c>
       <c r="B374" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C374" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>1137</v>
       </c>
       <c r="B375" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C375" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376">
         <v>1138</v>
       </c>
       <c r="B376" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C376" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>914</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>1139</v>
       </c>
       <c r="B377" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C377" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378">
         <v>1141</v>
       </c>
       <c r="B378" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>1150</v>
       </c>
       <c r="B379" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D379">
         <v>24</v>
       </c>
       <c r="E379" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>1092</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380">
         <v>1151</v>
       </c>
       <c r="B380" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>1152</v>
       </c>
       <c r="B381" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382">
         <v>1153</v>
       </c>
       <c r="B382" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>920</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>1154</v>
       </c>
       <c r="B383" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384">
         <v>1155</v>
       </c>
       <c r="B384" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>1156</v>
       </c>
       <c r="B385" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D385">
         <v>25</v>
       </c>
       <c r="E385" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>1093</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386">
         <v>1158</v>
       </c>
       <c r="B386" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D386">
         <v>26</v>
       </c>
       <c r="E386" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>1094</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387">
         <v>1160</v>
       </c>
       <c r="B387" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D387">
         <v>27</v>
       </c>
       <c r="E387" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>1095</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388">
         <v>1162</v>
       </c>
       <c r="B388" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D388">
         <v>28</v>
       </c>
       <c r="E388" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>1096</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389">
         <v>1164</v>
       </c>
       <c r="B389" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D389">
         <v>29</v>
       </c>
       <c r="E389" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>1097</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390">
         <v>1166</v>
       </c>
       <c r="B390" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C390" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D390">
         <v>30</v>
       </c>
       <c r="E390" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>1098</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391">
         <v>1168</v>
       </c>
       <c r="B391" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C391" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D391">
         <v>31</v>
       </c>
       <c r="E391" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>1098</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392">
         <v>1170</v>
       </c>
       <c r="B392" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C392" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D392">
         <v>32</v>
       </c>
       <c r="E392" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>1099</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393">
         <v>1172</v>
       </c>
       <c r="B393" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C393" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D393">
         <v>33</v>
       </c>
       <c r="E393" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>1100</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394">
         <v>1174</v>
       </c>
       <c r="B394" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C394" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D394">
         <v>34</v>
       </c>
       <c r="E394" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>1101</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395">
         <v>1176</v>
       </c>
       <c r="B395" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C395" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D395">
         <v>35</v>
       </c>
       <c r="E395" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>1102</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396">
         <v>1178</v>
       </c>
       <c r="B396" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C396" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D396">
         <v>36</v>
       </c>
       <c r="E396" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397">
         <v>1180</v>
       </c>
       <c r="B397" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C397" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D397">
         <v>37</v>
       </c>
       <c r="E397" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>1104</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398">
         <v>1182</v>
       </c>
       <c r="B398" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C398" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D398">
         <v>38</v>
       </c>
       <c r="E398" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>1105</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
       <c r="A399">
         <v>1184</v>
       </c>
       <c r="B399" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C399" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D399">
         <v>39</v>
       </c>
       <c r="E399" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>1106</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
       <c r="A400">
         <v>1186</v>
       </c>
       <c r="B400" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C400" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D400">
         <v>40</v>
       </c>
       <c r="E400" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>1107</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>1187</v>
       </c>
       <c r="B401" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C401" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>1188</v>
       </c>
       <c r="B402" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C402" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>939</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403">
         <v>1189</v>
       </c>
       <c r="B403" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404">
         <v>1190</v>
       </c>
       <c r="B404" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405">
         <v>1191</v>
       </c>
       <c r="B405" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C405" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406">
         <v>1192</v>
       </c>
       <c r="B406" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C406" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>943</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407">
         <v>1193</v>
       </c>
       <c r="B407" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C407" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>944</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408">
         <v>1194</v>
       </c>
       <c r="B408" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C408" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409">
         <v>1195</v>
       </c>
       <c r="B409" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C409" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410">
         <v>1196</v>
       </c>
       <c r="B410" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C410" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411">
         <v>1197</v>
       </c>
       <c r="B411" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C411" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412">
         <v>1198</v>
       </c>
       <c r="B412" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C412" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>949</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413">
         <v>1199</v>
       </c>
       <c r="B413" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C413" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414">
         <v>1200</v>
       </c>
       <c r="B414" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C414" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>951</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415">
         <v>1201</v>
       </c>
       <c r="B415" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C415" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D415">
         <v>41</v>
       </c>
       <c r="E415" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>1108</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416">
         <v>1202</v>
       </c>
       <c r="B416" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C416" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D416">
         <v>42</v>
       </c>
       <c r="E416" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>1106</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417">
         <v>1204</v>
       </c>
       <c r="B417" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C417" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D417">
         <v>44</v>
       </c>
       <c r="E417" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>1109</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418">
         <v>1205</v>
       </c>
       <c r="B418" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C418" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D418">
         <v>45</v>
       </c>
       <c r="E418" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>1110</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419">
         <v>1206</v>
       </c>
       <c r="B419" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C419" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D419">
         <v>46</v>
       </c>
       <c r="E419" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>1111</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420">
         <v>1208</v>
       </c>
       <c r="B420" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C420" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D420">
         <v>48</v>
       </c>
       <c r="E420" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>1112</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421">
         <v>1209</v>
       </c>
       <c r="B421" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C421" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D421">
         <v>49</v>
       </c>
       <c r="E421" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>1113</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422">
         <v>1210</v>
       </c>
       <c r="B422" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C422" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D422">
         <v>50</v>
       </c>
       <c r="E422" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>1114</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423">
         <v>1211</v>
       </c>
       <c r="B423" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C423" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D423">
         <v>51</v>
       </c>
       <c r="E423" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>1115</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424">
         <v>1212</v>
       </c>
       <c r="B424" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C424" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425">
         <v>1213</v>
       </c>
       <c r="B425" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C425" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426">
         <v>1214</v>
       </c>
       <c r="B426" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C426" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427">
         <v>1215</v>
       </c>
       <c r="B427" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C427" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428">
         <v>1216</v>
       </c>
       <c r="B428" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C428" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429">
         <v>1217</v>
       </c>
       <c r="B429" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C429" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430">
         <v>1218</v>
       </c>
       <c r="B430" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C430" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
       <c r="A431">
         <v>1219</v>
       </c>
       <c r="B431" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C431" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432">
         <v>1220</v>
       </c>
       <c r="B432" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C432" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
       <c r="A433">
         <v>1221</v>
       </c>
       <c r="B433" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C433" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
       <c r="A434">
         <v>1222</v>
       </c>
       <c r="B434" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C434" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
       <c r="A435">
         <v>1223</v>
       </c>
       <c r="B435" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C435" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436">
         <v>1224</v>
       </c>
       <c r="B436" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C436" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437">
         <v>1225</v>
       </c>
       <c r="B437" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C437" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
+        <v>974</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
       <c r="A438">
         <v>1226</v>
       </c>
       <c r="B438" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C438" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439">
         <v>1227</v>
       </c>
       <c r="B439" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C439" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440">
         <v>1228</v>
       </c>
       <c r="B440" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C440" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441">
         <v>1229</v>
       </c>
       <c r="B441" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C441" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
       <c r="A442">
         <v>1230</v>
       </c>
       <c r="B442" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C442" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443">
         <v>1231</v>
       </c>
       <c r="B443" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C443" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
       <c r="A444">
         <v>1232</v>
       </c>
       <c r="B444" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C444" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
       <c r="A445">
         <v>1233</v>
       </c>
       <c r="B445" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C445" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446">
         <v>1234</v>
       </c>
       <c r="B446" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C446" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447">
         <v>1235</v>
       </c>
       <c r="B447" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C447" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448">
         <v>1236</v>
       </c>
       <c r="B448" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C448" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
       <c r="A449">
         <v>1237</v>
       </c>
       <c r="B449" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C449" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450">
         <v>1238</v>
       </c>
       <c r="B450" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C450" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451">
         <v>1239</v>
       </c>
       <c r="B451" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C451" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
       <c r="A452">
         <v>1240</v>
       </c>
       <c r="B452" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C452" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
       <c r="A453">
         <v>1241</v>
       </c>
       <c r="B453" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C453" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454">
         <v>1242</v>
       </c>
       <c r="B454" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C454" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
       <c r="A455">
         <v>1243</v>
       </c>
       <c r="B455" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C455" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
       <c r="A456">
         <v>1244</v>
       </c>
       <c r="B456" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C456" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
+        <v>993</v>
+      </c>
+      <c r="F456" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457">
         <v>1245</v>
       </c>
       <c r="B457" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C457" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458">
         <v>1246</v>
       </c>
       <c r="B458" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C458" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
       <c r="A459">
         <v>1247</v>
       </c>
       <c r="B459" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C459" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
       <c r="A460">
         <v>1248</v>
       </c>
       <c r="B460" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C460" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
       <c r="A461">
         <v>1249</v>
       </c>
       <c r="B461" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C461" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
       <c r="A462">
         <v>1250</v>
       </c>
       <c r="B462" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C462" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
+        <v>999</v>
+      </c>
+      <c r="F462" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463">
         <v>1251</v>
       </c>
       <c r="B463" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C463" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
       <c r="A464">
         <v>1252</v>
       </c>
       <c r="B464" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C464" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
       <c r="A465">
         <v>1253</v>
       </c>
       <c r="B465" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C465" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
+        <v>1002</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
       <c r="A466">
         <v>1254</v>
       </c>
       <c r="B466" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C466" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
       <c r="A467">
         <v>1255</v>
       </c>
       <c r="B467" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C467" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
       <c r="A468">
         <v>1256</v>
       </c>
       <c r="B468" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C468" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
       <c r="A469">
         <v>1257</v>
       </c>
       <c r="B469" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C469" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
       <c r="A470">
         <v>1258</v>
       </c>
       <c r="B470" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C470" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
       <c r="A471">
         <v>1259</v>
       </c>
       <c r="B471" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C471" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
       <c r="A472">
         <v>1260</v>
       </c>
       <c r="B472" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C472" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
       <c r="A473">
         <v>1261</v>
       </c>
       <c r="B473" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C473" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
       <c r="A474">
         <v>1262</v>
       </c>
       <c r="B474" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C474" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
       <c r="A475">
         <v>1263</v>
       </c>
       <c r="B475" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C475" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
       <c r="A476">
         <v>1264</v>
       </c>
       <c r="B476" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C476" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
       <c r="A477">
         <v>1265</v>
       </c>
       <c r="B477" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C477" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
       <c r="A478">
         <v>1266</v>
       </c>
       <c r="B478" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C478" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
       <c r="A479">
         <v>1267</v>
       </c>
       <c r="B479" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C479" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
       <c r="A480">
         <v>1268</v>
       </c>
       <c r="B480" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C480" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
       <c r="A481">
         <v>1269</v>
       </c>
       <c r="B481" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C481" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
       <c r="A482">
         <v>1270</v>
       </c>
       <c r="B482" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C482" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
       <c r="A483">
         <v>1271</v>
       </c>
       <c r="B483" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C483" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
       <c r="A484">
         <v>1272</v>
       </c>
       <c r="B484" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C484" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
       <c r="A485">
         <v>1273</v>
       </c>
       <c r="B485" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C485" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
       <c r="A486">
         <v>1274</v>
       </c>
       <c r="B486" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C486" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
       <c r="A487">
         <v>1275</v>
       </c>
       <c r="B487" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C487" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
       <c r="A488">
         <v>1276</v>
       </c>
       <c r="B488" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C488" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
       <c r="A489">
         <v>1277</v>
       </c>
       <c r="B489" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C489" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
       <c r="A490">
         <v>1278</v>
       </c>
       <c r="B490" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C490" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
       <c r="A491">
         <v>1279</v>
       </c>
       <c r="B491" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C491" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
       <c r="A492">
         <v>1280</v>
       </c>
       <c r="B492" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C492" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
       <c r="A493">
         <v>1281</v>
       </c>
       <c r="B493" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C493" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
+        <v>1030</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
       <c r="A494">
         <v>1282</v>
       </c>
       <c r="B494" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C494" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
       <c r="A495">
         <v>1283</v>
       </c>
       <c r="B495" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C495" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
       <c r="A496">
         <v>1284</v>
       </c>
       <c r="B496" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C496" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -9351,10 +9714,10 @@
         <v>1285</v>
       </c>
       <c r="B497" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C497" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -9362,10 +9725,10 @@
         <v>1286</v>
       </c>
       <c r="B498" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C498" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -9373,10 +9736,10 @@
         <v>1287</v>
       </c>
       <c r="B499" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C499" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9384,10 +9747,10 @@
         <v>1288</v>
       </c>
       <c r="B500" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C500" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9395,10 +9758,10 @@
         <v>1289</v>
       </c>
       <c r="B501" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C501" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9406,10 +9769,10 @@
         <v>1290</v>
       </c>
       <c r="B502" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C502" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9417,10 +9780,10 @@
         <v>1291</v>
       </c>
       <c r="B503" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C503" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9428,10 +9791,10 @@
         <v>1292</v>
       </c>
       <c r="B504" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C504" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9439,10 +9802,10 @@
         <v>1293</v>
       </c>
       <c r="B505" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C505" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9450,10 +9813,10 @@
         <v>1294</v>
       </c>
       <c r="B506" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C506" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9461,10 +9824,10 @@
         <v>1295</v>
       </c>
       <c r="B507" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C507" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9472,10 +9835,10 @@
         <v>1296</v>
       </c>
       <c r="B508" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C508" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9483,10 +9846,10 @@
         <v>1297</v>
       </c>
       <c r="B509" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C509" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -9494,10 +9857,10 @@
         <v>1298</v>
       </c>
       <c r="B510" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C510" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -9505,10 +9868,10 @@
         <v>1299</v>
       </c>
       <c r="B511" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C511" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -9516,10 +9879,10 @@
         <v>1300</v>
       </c>
       <c r="B512" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C512" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -9527,10 +9890,10 @@
         <v>1301</v>
       </c>
       <c r="B513" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C513" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -9538,10 +9901,10 @@
         <v>1302</v>
       </c>
       <c r="B514" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C514" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -9549,10 +9912,10 @@
         <v>1303</v>
       </c>
       <c r="B515" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C515" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -9560,10 +9923,10 @@
         <v>1304</v>
       </c>
       <c r="B516" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C516" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9571,10 +9934,10 @@
         <v>1305</v>
       </c>
       <c r="B517" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C517" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -9582,10 +9945,10 @@
         <v>1306</v>
       </c>
       <c r="B518" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C518" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -9593,10 +9956,10 @@
         <v>1307</v>
       </c>
       <c r="B519" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C519" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -9604,10 +9967,10 @@
         <v>1308</v>
       </c>
       <c r="B520" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C520" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -9615,10 +9978,10 @@
         <v>1309</v>
       </c>
       <c r="B521" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C521" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -9626,10 +9989,10 @@
         <v>1310</v>
       </c>
       <c r="B522" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C522" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -9637,10 +10000,10 @@
         <v>1311</v>
       </c>
       <c r="B523" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C523" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -9648,10 +10011,10 @@
         <v>1312</v>
       </c>
       <c r="B524" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C524" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -9659,10 +10022,10 @@
         <v>1313</v>
       </c>
       <c r="B525" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C525" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -9670,10 +10033,10 @@
         <v>1314</v>
       </c>
       <c r="B526" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C526" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -9681,10 +10044,10 @@
         <v>1315</v>
       </c>
       <c r="B527" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C527" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -9692,10 +10055,10 @@
         <v>1316</v>
       </c>
       <c r="B528" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C528" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -9703,10 +10066,10 @@
         <v>1317</v>
       </c>
       <c r="B529" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C529" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -9714,10 +10077,10 @@
         <v>1318</v>
       </c>
       <c r="B530" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C530" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -9725,10 +10088,10 @@
         <v>1319</v>
       </c>
       <c r="B531" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C531" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -9736,10 +10099,10 @@
         <v>1320</v>
       </c>
       <c r="B532" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C532" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -9747,10 +10110,10 @@
         <v>1321</v>
       </c>
       <c r="B533" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C533" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -9758,10 +10121,10 @@
         <v>1322</v>
       </c>
       <c r="B534" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C534" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -9769,10 +10132,10 @@
         <v>1323</v>
       </c>
       <c r="B535" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C535" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -9780,10 +10143,10 @@
         <v>1324</v>
       </c>
       <c r="B536" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C536" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -9791,10 +10154,10 @@
         <v>1325</v>
       </c>
       <c r="B537" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C537" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -9802,10 +10165,10 @@
         <v>1326</v>
       </c>
       <c r="B538" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C538" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -9813,10 +10176,10 @@
         <v>1327</v>
       </c>
       <c r="B539" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C539" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -9824,10 +10187,10 @@
         <v>1328</v>
       </c>
       <c r="B540" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C540" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9835,10 +10198,10 @@
         <v>1329</v>
       </c>
       <c r="B541" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C541" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9846,10 +10209,10 @@
         <v>1330</v>
       </c>
       <c r="B542" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C542" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9857,10 +10220,10 @@
         <v>1331</v>
       </c>
       <c r="B543" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C543" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9868,109 +10231,112 @@
         <v>1332</v>
       </c>
       <c r="B544" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C544" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
       <c r="A545">
         <v>1333</v>
       </c>
       <c r="B545" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C545" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
       <c r="A546">
         <v>1334</v>
       </c>
       <c r="B546" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C546" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
       <c r="A547">
         <v>1335</v>
       </c>
       <c r="B547" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C547" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
       <c r="A548">
         <v>1336</v>
       </c>
       <c r="B548" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C548" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
       <c r="A549">
         <v>1337</v>
       </c>
       <c r="B549" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C549" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
       <c r="A550">
         <v>1338</v>
       </c>
       <c r="B550" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C550" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
       <c r="A551">
         <v>1339</v>
       </c>
       <c r="B551" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C551" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3">
+        <v>1088</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
       <c r="A552">
         <v>1340</v>
       </c>
       <c r="B552" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C552" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
       <c r="A553">
         <v>1341</v>
       </c>
       <c r="B553" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C553" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>

--- a/public/advisors.xlsx
+++ b/public/advisors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1122">
   <si>
     <t>idAdvisor</t>
   </si>
@@ -1129,63 +1129,63 @@
     <t>Nguyễn Tuấn Cảnh</t>
   </si>
   <si>
+    <t>Tkdc-dhcn</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Bình</t>
+  </si>
+  <si>
+    <t>Hà Quang Thụy</t>
+  </si>
+  <si>
+    <t>Trần Quang Vinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Tùng</t>
+  </si>
+  <si>
+    <t>Đồng Thị Ngọc Lan</t>
+  </si>
+  <si>
+    <t>Trần Quang Diệu</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Hóa</t>
+  </si>
+  <si>
+    <t>Hà Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Trịnh Đông</t>
+  </si>
+  <si>
+    <t>Trịnh Thanh Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Hạnh Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Cẩm Tú</t>
+  </si>
+  <si>
+    <t>Đặng Thành Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Khải</t>
+  </si>
+  <si>
+    <t>Lê Hồng Lam</t>
+  </si>
+  <si>
+    <t>Võ Sỹ Nam</t>
+  </si>
+  <si>
     <t>Phạm Thanh Giang</t>
   </si>
   <si>
-    <t>Tkdc-dhcn</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Bình</t>
-  </si>
-  <si>
-    <t>Hà Quang Thụy</t>
-  </si>
-  <si>
-    <t>Trần Quang Vinh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Thủy</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Tùng</t>
-  </si>
-  <si>
-    <t>Đồng Thị Ngọc Lan</t>
-  </si>
-  <si>
-    <t>Trần Quang Diệu</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Hóa</t>
-  </si>
-  <si>
-    <t>Hà Minh Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Trịnh Đông</t>
-  </si>
-  <si>
-    <t>Trịnh Thanh Bình</t>
-  </si>
-  <si>
-    <t>Nguyễn Hạnh Phúc</t>
-  </si>
-  <si>
-    <t>Nguyễn Cẩm Tú</t>
-  </si>
-  <si>
-    <t>Đặng Thành Trung</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Khải</t>
-  </si>
-  <si>
-    <t>Lê Hồng Lam</t>
-  </si>
-  <si>
-    <t>Võ Sỹ Nam</t>
-  </si>
-  <si>
     <t>Nguyễn Thế Hoàng Anh</t>
   </si>
   <si>
@@ -1507,9 +1507,6 @@
     <t>Tuyển sinh sau đại học - ĐH Công nghệ</t>
   </si>
   <si>
-    <t>Thư viện hội sinh viên - ĐH Công nghệ</t>
-  </si>
-  <si>
     <t>Lê Thị Thu Thảo</t>
   </si>
   <si>
@@ -1582,9 +1579,6 @@
     <t>Trần Vũ Bảo Dung</t>
   </si>
   <si>
-    <t>Thanh tra Pháp chế</t>
-  </si>
-  <si>
     <t>Bùi Thị Hà</t>
   </si>
   <si>
@@ -1600,9 +1594,6 @@
     <t>Lê Thùy Dương</t>
   </si>
   <si>
-    <t>Phòng Tổ chức cán bộ - Đại học Công nghệ</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc Lâm Tùng</t>
   </si>
   <si>
@@ -1621,21 +1612,18 @@
     <t>Phạm Đăng Hoàng</t>
   </si>
   <si>
-    <t>Phòng Kế hoạch-Tài chính</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nguyễn Khánh </t>
   </si>
   <si>
-    <t>doit</t>
-  </si>
-  <si>
     <t>Nguyễn Đăng Bảo Long</t>
   </si>
   <si>
     <t>Lê Công Thương</t>
   </si>
   <si>
+    <t>Tạ Anh Sơn</t>
+  </si>
+  <si>
     <t>tunghx@vnu.edu.vn</t>
   </si>
   <si>
@@ -2767,9 +2755,6 @@
     <t>canhnt@vnu.edu.vn</t>
   </si>
   <si>
-    <t>phamthanhgiang@ioit.vn</t>
-  </si>
-  <si>
     <t>coltech@vnu.edu.vn</t>
   </si>
   <si>
@@ -3154,9 +3139,6 @@
     <t>tuyensinhsdh.dhcn@vnu.edu.vn</t>
   </si>
   <si>
-    <t>thuvienhsv@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>thuthao@vnu.edu.vn</t>
   </si>
   <si>
@@ -3232,9 +3214,6 @@
     <t>dungb@vnu.edu.vn</t>
   </si>
   <si>
-    <t>ttpc.dhcn@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>btha@vnu.edu.vn</t>
   </si>
   <si>
@@ -3250,9 +3229,6 @@
     <t>duongtl@vnu.edu.vn</t>
   </si>
   <si>
-    <t>tccb_dhcn@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>lamtungnguyen@vnu.edu.vn</t>
   </si>
   <si>
@@ -3271,15 +3247,9 @@
     <t>hoangpd@vnu.edu.vn</t>
   </si>
   <si>
-    <t>khtc_dhcn@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>duynk@vnu.edu.vn</t>
   </si>
   <si>
-    <t>doit@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>minhhoang.ha@vnu.edu.vn</t>
   </si>
   <si>
@@ -3289,12 +3259,40 @@
     <t>thuonglc@vnu.edu.vn</t>
   </si>
   <si>
+    <t>taanhson123@gmail.com</t>
+  </si>
+  <si>
+    <t>hungbq@fimo.edu.vn</t>
+  </si>
+  <si>
+    <t>namnh@vnu.edu.vn
+namnh</t>
+  </si>
+  <si>
+    <t>khoi.n.le@gmail.com</t>
+  </si>
+  <si>
+    <t>bqcuong@cnu.edu.vn</t>
+  </si>
+  <si>
+    <t>lhquynh@gmail.com</t>
+  </si>
+  <si>
+    <t>hungpn@vnu.edu.</t>
+  </si>
+  <si>
+    <t>phuonghd@gmail.com</t>
+  </si>
+  <si>
+    <t>duyvb@vnu.edu.vb</t>
+  </si>
+  <si>
+    <t>duyvb@vbu.edu.vn</t>
+  </si>
+  <si>
     <t>PTIT</t>
   </si>
   <si>
-    <t>Viện hàn lâm Khoa học Việt Nam</t>
-  </si>
-  <si>
     <t>Công ty Toshiba</t>
   </si>
   <si>
@@ -3362,6 +3360,9 @@
   </si>
   <si>
     <t>Học Viện KTQS</t>
+  </si>
+  <si>
+    <t>Trường Đại Học Bách Khoa Hà Nội</t>
   </si>
   <si>
     <t>TS</t>
@@ -3737,7 +3738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:F557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3771,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
         <v>1116</v>
@@ -3785,7 +3786,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -3805,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F4" t="s">
         <v>1118</v>
@@ -3819,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5" t="s">
         <v>1117</v>
@@ -3833,7 +3834,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3844,7 +3845,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3855,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3866,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3877,7 +3878,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3888,7 +3889,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3899,7 +3900,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3910,7 +3911,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3921,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3932,7 +3933,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3943,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3954,7 +3955,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3965,7 +3966,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3976,7 +3977,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3987,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3998,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4009,7 +4010,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4020,7 +4021,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4031,7 +4032,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F24" t="s">
         <v>1117</v>
@@ -4045,7 +4046,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4056,7 +4057,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F26" t="s">
         <v>1116</v>
@@ -4070,7 +4071,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F27" t="s">
         <v>1116</v>
@@ -4084,7 +4085,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4095,7 +4096,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F29" t="s">
         <v>1116</v>
@@ -4109,7 +4110,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F30" t="s">
         <v>1117</v>
@@ -4123,7 +4124,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F31" t="s">
         <v>1116</v>
@@ -4137,7 +4138,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F32" t="s">
         <v>1117</v>
@@ -4151,7 +4152,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4162,7 +4163,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F34" t="s">
         <v>1116</v>
@@ -4176,7 +4177,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4187,7 +4188,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4198,7 +4199,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F37" t="s">
         <v>1116</v>
@@ -4212,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F38" t="s">
         <v>1117</v>
@@ -4226,7 +4227,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F39" t="s">
         <v>1117</v>
@@ -4240,7 +4241,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F40" t="s">
         <v>1116</v>
@@ -4254,7 +4255,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F41" t="s">
         <v>1116</v>
@@ -4268,7 +4269,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4279,7 +4280,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F43" t="s">
         <v>1118</v>
@@ -4293,7 +4294,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F44" t="s">
         <v>1117</v>
@@ -4307,7 +4308,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4318,7 +4319,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4329,7 +4330,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F47" t="s">
         <v>1116</v>
@@ -4343,7 +4344,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4354,7 +4355,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F49" t="s">
         <v>1116</v>
@@ -4368,7 +4369,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4379,7 +4380,7 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F51" t="s">
         <v>1116</v>
@@ -4393,7 +4394,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4404,7 +4405,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F53" t="s">
         <v>1116</v>
@@ -4418,7 +4419,7 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4429,7 +4430,7 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4440,7 +4441,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4451,7 +4452,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4462,7 +4463,7 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F58" t="s">
         <v>1116</v>
@@ -4476,7 +4477,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F59" t="s">
         <v>1116</v>
@@ -4490,7 +4491,7 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4501,7 +4502,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F61" t="s">
         <v>1117</v>
@@ -4515,7 +4516,7 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4526,7 +4527,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4537,7 +4538,7 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F64" t="s">
         <v>1116</v>
@@ -4551,7 +4552,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4562,7 +4563,7 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F66" t="s">
         <v>1116</v>
@@ -4576,7 +4577,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4587,7 +4588,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F68" t="s">
         <v>1118</v>
@@ -4601,7 +4602,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F69" t="s">
         <v>1118</v>
@@ -4615,7 +4616,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F70" t="s">
         <v>1117</v>
@@ -4629,7 +4630,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F71" t="s">
         <v>1116</v>
@@ -4643,7 +4644,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F72" t="s">
         <v>1118</v>
@@ -4657,7 +4658,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F73" t="s">
         <v>1118</v>
@@ -4671,7 +4672,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F74" t="s">
         <v>1117</v>
@@ -4685,7 +4686,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F75" t="s">
         <v>1118</v>
@@ -4699,7 +4700,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4710,7 +4711,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4721,7 +4722,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4732,7 +4733,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F79" t="s">
         <v>1117</v>
@@ -4746,7 +4747,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4757,7 +4758,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4768,7 +4769,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4779,7 +4780,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4790,7 +4791,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4801,7 +4802,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4812,7 +4813,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4823,7 +4824,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4834,7 +4835,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4845,7 +4846,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4856,7 +4857,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4867,7 +4868,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4878,7 +4879,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4889,7 +4890,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4900,7 +4901,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4911,7 +4912,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4922,7 +4923,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4933,7 +4934,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4944,7 +4945,7 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4955,7 +4956,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4966,7 +4967,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4977,7 +4978,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4988,7 +4989,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4999,7 +5000,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -5010,7 +5011,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -5021,7 +5022,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -5032,7 +5033,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -5043,7 +5044,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -5054,7 +5055,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5065,7 +5066,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5076,7 +5077,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5087,7 +5088,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5098,7 +5099,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5109,7 +5110,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5120,7 +5121,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5131,7 +5132,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5142,7 +5143,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5153,7 +5154,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5164,7 +5165,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5175,7 +5176,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5186,7 +5187,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5197,7 +5198,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5208,7 +5209,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5219,7 +5220,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5230,7 +5231,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5241,7 +5242,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5252,7 +5253,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F126" t="s">
         <v>1116</v>
@@ -5266,7 +5267,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5277,7 +5278,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5288,7 +5289,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5299,7 +5300,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5310,7 +5311,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5321,7 +5322,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5332,7 +5333,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5343,7 +5344,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5354,7 +5355,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5365,7 +5366,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F136" t="s">
         <v>1116</v>
@@ -5379,7 +5380,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5390,7 +5391,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5401,7 +5402,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5412,7 +5413,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5423,7 +5424,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5434,7 +5435,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5445,7 +5446,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5456,7 +5457,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F144" t="s">
         <v>1116</v>
@@ -5470,7 +5471,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5481,7 +5482,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5492,7 +5493,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5503,7 +5504,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5514,7 +5515,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F149" t="s">
         <v>1116</v>
@@ -5528,7 +5529,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5539,7 +5540,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F151" t="s">
         <v>1116</v>
@@ -5553,7 +5554,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5564,7 +5565,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F153" t="s">
         <v>1117</v>
@@ -5578,7 +5579,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5589,7 +5590,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5600,7 +5601,7 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F156" t="s">
         <v>1116</v>
@@ -5614,7 +5615,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5625,7 +5626,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5636,7 +5637,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5647,7 +5648,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F160" t="s">
         <v>1116</v>
@@ -5661,7 +5662,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F161" t="s">
         <v>1116</v>
@@ -5675,7 +5676,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F162" t="s">
         <v>1117</v>
@@ -5689,7 +5690,7 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5700,7 +5701,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5711,7 +5712,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5722,7 +5723,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5733,7 +5734,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5744,7 +5745,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5755,7 +5756,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5766,7 +5767,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5777,7 +5778,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5788,7 +5789,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5799,7 +5800,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5810,7 +5811,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F174" t="s">
         <v>1116</v>
@@ -5824,7 +5825,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5835,7 +5836,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5846,7 +5847,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5857,7 +5858,7 @@
         <v>158</v>
       </c>
       <c r="C178" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5868,7 +5869,7 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5879,7 +5880,7 @@
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5890,7 +5891,7 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5901,7 +5902,7 @@
         <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5912,7 +5913,7 @@
         <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5923,7 +5924,7 @@
         <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5934,7 +5935,7 @@
         <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5945,7 +5946,7 @@
         <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5956,7 +5957,7 @@
         <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5967,7 +5968,7 @@
         <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5978,7 +5979,7 @@
         <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5989,7 +5990,7 @@
         <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6000,7 +6001,7 @@
         <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6011,7 +6012,7 @@
         <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6022,7 +6023,7 @@
         <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6033,7 +6034,7 @@
         <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6044,7 +6045,7 @@
         <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6055,7 +6056,7 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6066,7 +6067,7 @@
         <v>71</v>
       </c>
       <c r="C197" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F197" t="s">
         <v>1118</v>
@@ -6080,7 +6081,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6091,7 +6092,7 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6102,7 +6103,7 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6113,7 +6114,7 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F201" t="s">
         <v>1116</v>
@@ -6127,7 +6128,7 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6138,7 +6139,7 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6149,7 +6150,7 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6160,7 +6161,7 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6171,7 +6172,7 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6182,7 +6183,7 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6193,7 +6194,7 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6204,7 +6205,7 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6215,7 +6216,7 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6226,7 +6227,7 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6237,7 +6238,7 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6248,7 +6249,7 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6259,7 +6260,7 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6270,7 +6271,7 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6281,7 +6282,7 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6292,7 +6293,7 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6303,7 +6304,7 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6314,7 +6315,7 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6325,7 +6326,7 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F220" t="s">
         <v>1118</v>
@@ -6339,7 +6340,7 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6350,7 +6351,7 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6361,7 +6362,7 @@
         <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6372,7 +6373,7 @@
         <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6383,7 +6384,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6394,7 +6395,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6405,7 +6406,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6416,7 +6417,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6427,7 +6428,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6438,7 +6439,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6449,7 +6450,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6460,7 +6461,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6471,7 +6472,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6482,7 +6483,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6493,7 +6494,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6504,7 +6505,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6515,7 +6516,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6526,7 +6527,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6537,7 +6538,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6548,7 +6549,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6559,7 +6560,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F241" t="s">
         <v>1118</v>
@@ -6573,7 +6574,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F242" t="s">
         <v>1118</v>
@@ -6587,7 +6588,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6598,7 +6599,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6609,7 +6610,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6620,7 +6621,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F246" t="s">
         <v>1117</v>
@@ -6634,7 +6635,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6645,7 +6646,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6656,7 +6657,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F249" t="s">
         <v>1118</v>
@@ -6670,7 +6671,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6681,7 +6682,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6692,7 +6693,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6703,7 +6704,7 @@
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6714,7 +6715,7 @@
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6725,7 +6726,7 @@
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6736,7 +6737,7 @@
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6747,7 +6748,7 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6758,7 +6759,7 @@
         <v>246</v>
       </c>
       <c r="C258" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6769,7 +6770,10 @@
         <v>256</v>
       </c>
       <c r="C259" t="s">
-        <v>797</v>
+        <v>793</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6780,7 +6784,7 @@
         <v>257</v>
       </c>
       <c r="C260" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6791,7 +6795,7 @@
         <v>258</v>
       </c>
       <c r="C261" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6802,7 +6806,7 @@
         <v>259</v>
       </c>
       <c r="C262" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6813,7 +6817,7 @@
         <v>260</v>
       </c>
       <c r="C263" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6824,7 +6828,7 @@
         <v>261</v>
       </c>
       <c r="C264" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6835,7 +6839,7 @@
         <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6846,7 +6850,7 @@
         <v>263</v>
       </c>
       <c r="C266" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6857,7 +6861,7 @@
         <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6868,7 +6872,7 @@
         <v>265</v>
       </c>
       <c r="C268" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6879,7 +6883,7 @@
         <v>266</v>
       </c>
       <c r="C269" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6890,7 +6894,7 @@
         <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6901,7 +6905,7 @@
         <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F271" t="s">
         <v>1118</v>
@@ -6915,7 +6919,7 @@
         <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6926,7 +6930,7 @@
         <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F273" t="s">
         <v>1118</v>
@@ -6940,7 +6944,7 @@
         <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6951,7 +6955,7 @@
         <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6962,7 +6966,7 @@
         <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6973,7 +6977,7 @@
         <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6984,7 +6988,7 @@
         <v>275</v>
       </c>
       <c r="C278" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6995,7 +6999,7 @@
         <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7006,7 +7010,7 @@
         <v>277</v>
       </c>
       <c r="C280" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7017,7 +7021,7 @@
         <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F281" t="s">
         <v>1118</v>
@@ -7031,7 +7035,7 @@
         <v>279</v>
       </c>
       <c r="C282" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F282" t="s">
         <v>1118</v>
@@ -7045,7 +7049,7 @@
         <v>280</v>
       </c>
       <c r="C283" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7056,7 +7060,7 @@
         <v>71</v>
       </c>
       <c r="C284" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F284" t="s">
         <v>1118</v>
@@ -7070,7 +7074,7 @@
         <v>281</v>
       </c>
       <c r="C285" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7081,7 +7085,7 @@
         <v>282</v>
       </c>
       <c r="C286" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F286" t="s">
         <v>1118</v>
@@ -7095,7 +7099,7 @@
         <v>208</v>
       </c>
       <c r="C287" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7106,7 +7110,7 @@
         <v>283</v>
       </c>
       <c r="C288" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7117,7 +7121,7 @@
         <v>284</v>
       </c>
       <c r="C289" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7128,7 +7132,7 @@
         <v>285</v>
       </c>
       <c r="C290" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7139,7 +7143,7 @@
         <v>286</v>
       </c>
       <c r="C291" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7150,7 +7154,7 @@
         <v>287</v>
       </c>
       <c r="C292" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7161,7 +7165,7 @@
         <v>288</v>
       </c>
       <c r="C293" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7172,7 +7176,7 @@
         <v>289</v>
       </c>
       <c r="C294" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7183,7 +7187,7 @@
         <v>290</v>
       </c>
       <c r="C295" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7194,7 +7198,7 @@
         <v>291</v>
       </c>
       <c r="C296" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7205,7 +7209,7 @@
         <v>292</v>
       </c>
       <c r="C297" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7216,7 +7220,7 @@
         <v>293</v>
       </c>
       <c r="C298" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7227,7 +7231,7 @@
         <v>294</v>
       </c>
       <c r="C299" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7238,7 +7242,7 @@
         <v>295</v>
       </c>
       <c r="C300" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7249,7 +7253,7 @@
         <v>296</v>
       </c>
       <c r="C301" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F301" t="s">
         <v>1118</v>
@@ -7263,7 +7267,7 @@
         <v>297</v>
       </c>
       <c r="C302" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7274,7 +7278,7 @@
         <v>298</v>
       </c>
       <c r="C303" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7285,7 +7289,7 @@
         <v>299</v>
       </c>
       <c r="C304" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7296,7 +7300,7 @@
         <v>300</v>
       </c>
       <c r="C305" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7307,7 +7311,7 @@
         <v>301</v>
       </c>
       <c r="C306" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7318,7 +7322,7 @@
         <v>302</v>
       </c>
       <c r="C307" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7329,7 +7333,7 @@
         <v>303</v>
       </c>
       <c r="C308" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7340,7 +7344,7 @@
         <v>304</v>
       </c>
       <c r="C309" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7351,7 +7355,7 @@
         <v>305</v>
       </c>
       <c r="C310" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7362,7 +7366,7 @@
         <v>306</v>
       </c>
       <c r="C311" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F311" t="s">
         <v>1116</v>
@@ -7376,7 +7380,7 @@
         <v>307</v>
       </c>
       <c r="C312" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F312" t="s">
         <v>1116</v>
@@ -7390,7 +7394,7 @@
         <v>308</v>
       </c>
       <c r="C313" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7401,7 +7405,7 @@
         <v>309</v>
       </c>
       <c r="C314" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7412,7 +7416,7 @@
         <v>310</v>
       </c>
       <c r="C315" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7423,7 +7427,7 @@
         <v>311</v>
       </c>
       <c r="C316" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7434,7 +7438,7 @@
         <v>312</v>
       </c>
       <c r="C317" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7445,7 +7449,7 @@
         <v>313</v>
       </c>
       <c r="C318" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7456,7 +7460,7 @@
         <v>314</v>
       </c>
       <c r="C319" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F319" t="s">
         <v>1119</v>
@@ -7470,7 +7474,7 @@
         <v>315</v>
       </c>
       <c r="C320" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F320" t="s">
         <v>1120</v>
@@ -7484,7 +7488,7 @@
         <v>316</v>
       </c>
       <c r="C321" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F321" t="s">
         <v>1120</v>
@@ -7498,7 +7502,7 @@
         <v>317</v>
       </c>
       <c r="C322" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F322" t="s">
         <v>1121</v>
@@ -7512,7 +7516,7 @@
         <v>318</v>
       </c>
       <c r="C323" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7523,7 +7527,7 @@
         <v>319</v>
       </c>
       <c r="C324" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7534,7 +7538,7 @@
         <v>320</v>
       </c>
       <c r="C325" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7545,7 +7549,7 @@
         <v>321</v>
       </c>
       <c r="C326" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F326" t="s">
         <v>1121</v>
@@ -7559,7 +7563,7 @@
         <v>322</v>
       </c>
       <c r="C327" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7570,7 +7574,7 @@
         <v>323</v>
       </c>
       <c r="C328" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7581,7 +7585,7 @@
         <v>324</v>
       </c>
       <c r="C329" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7592,7 +7596,7 @@
         <v>319</v>
       </c>
       <c r="C330" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7603,7 +7607,7 @@
         <v>325</v>
       </c>
       <c r="C331" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7614,7 +7618,7 @@
         <v>326</v>
       </c>
       <c r="C332" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F332" t="s">
         <v>1116</v>
@@ -7628,7 +7632,7 @@
         <v>327</v>
       </c>
       <c r="C333" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7639,7 +7643,7 @@
         <v>328</v>
       </c>
       <c r="C334" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7650,7 +7654,7 @@
         <v>329</v>
       </c>
       <c r="C335" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7661,7 +7665,7 @@
         <v>330</v>
       </c>
       <c r="C336" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7672,7 +7676,7 @@
         <v>331</v>
       </c>
       <c r="C337" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7683,7 +7687,7 @@
         <v>332</v>
       </c>
       <c r="C338" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7694,7 +7698,7 @@
         <v>333</v>
       </c>
       <c r="C339" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F339" t="s">
         <v>1118</v>
@@ -7708,7 +7712,7 @@
         <v>334</v>
       </c>
       <c r="C340" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7719,7 +7723,7 @@
         <v>335</v>
       </c>
       <c r="C341" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7730,7 +7734,7 @@
         <v>336</v>
       </c>
       <c r="C342" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7741,7 +7745,7 @@
         <v>337</v>
       </c>
       <c r="C343" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7752,7 +7756,7 @@
         <v>338</v>
       </c>
       <c r="C344" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7763,7 +7767,7 @@
         <v>339</v>
       </c>
       <c r="C345" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7774,7 +7778,7 @@
         <v>340</v>
       </c>
       <c r="C346" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7785,7 +7789,7 @@
         <v>341</v>
       </c>
       <c r="C347" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7796,7 +7800,7 @@
         <v>342</v>
       </c>
       <c r="C348" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7807,7 +7811,7 @@
         <v>343</v>
       </c>
       <c r="C349" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7818,7 +7822,7 @@
         <v>344</v>
       </c>
       <c r="C350" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7829,7 +7833,7 @@
         <v>345</v>
       </c>
       <c r="C351" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7840,7 +7844,7 @@
         <v>346</v>
       </c>
       <c r="C352" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7851,7 +7855,7 @@
         <v>347</v>
       </c>
       <c r="C353" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7862,7 +7866,7 @@
         <v>348</v>
       </c>
       <c r="C354" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7873,7 +7877,7 @@
         <v>349</v>
       </c>
       <c r="C355" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7884,7 +7888,7 @@
         <v>350</v>
       </c>
       <c r="C356" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7895,7 +7899,7 @@
         <v>351</v>
       </c>
       <c r="C357" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7906,7 +7910,7 @@
         <v>352</v>
       </c>
       <c r="C358" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F358" t="s">
         <v>1120</v>
@@ -7920,7 +7924,7 @@
         <v>353</v>
       </c>
       <c r="C359" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F359" t="s">
         <v>1121</v>
@@ -7934,7 +7938,7 @@
         <v>354</v>
       </c>
       <c r="C360" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7945,7 +7949,7 @@
         <v>355</v>
       </c>
       <c r="C361" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F361" t="s">
         <v>1120</v>
@@ -7959,7 +7963,7 @@
         <v>356</v>
       </c>
       <c r="C362" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F362" t="s">
         <v>1120</v>
@@ -7973,7 +7977,7 @@
         <v>357</v>
       </c>
       <c r="C363" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7984,7 +7988,7 @@
         <v>358</v>
       </c>
       <c r="C364" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F364" t="s">
         <v>1121</v>
@@ -7998,7 +8002,7 @@
         <v>359</v>
       </c>
       <c r="C365" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8009,7 +8013,7 @@
         <v>360</v>
       </c>
       <c r="C366" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8020,7 +8024,7 @@
         <v>361</v>
       </c>
       <c r="C367" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8031,7 +8035,7 @@
         <v>362</v>
       </c>
       <c r="C368" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8042,7 +8046,7 @@
         <v>363</v>
       </c>
       <c r="C369" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8053,7 +8057,7 @@
         <v>364</v>
       </c>
       <c r="C370" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8064,7 +8068,7 @@
         <v>365</v>
       </c>
       <c r="C371" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8075,7 +8079,7 @@
         <v>366</v>
       </c>
       <c r="C372" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8086,7 +8090,7 @@
         <v>367</v>
       </c>
       <c r="C373" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8097,7 +8101,7 @@
         <v>368</v>
       </c>
       <c r="C374" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8108,7 +8112,7 @@
         <v>178</v>
       </c>
       <c r="C375" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8119,7 +8123,7 @@
         <v>369</v>
       </c>
       <c r="C376" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F376" t="s">
         <v>1120</v>
@@ -8133,7 +8137,7 @@
         <v>147</v>
       </c>
       <c r="C377" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8144,139 +8148,139 @@
         <v>370</v>
       </c>
       <c r="C378" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B379" t="s">
         <v>371</v>
       </c>
       <c r="C379" t="s">
-        <v>917</v>
-      </c>
-      <c r="D379">
-        <v>24</v>
-      </c>
-      <c r="E379" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F379" t="s">
-        <v>1117</v>
+        <v>913</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B380" t="s">
         <v>372</v>
       </c>
       <c r="C380" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B381" t="s">
         <v>373</v>
       </c>
       <c r="C381" t="s">
-        <v>919</v>
+        <v>915</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B382" t="s">
         <v>374</v>
       </c>
       <c r="C382" t="s">
-        <v>920</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1117</v>
+        <v>916</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B383" t="s">
         <v>375</v>
       </c>
       <c r="C383" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B384" t="s">
         <v>376</v>
       </c>
       <c r="C384" t="s">
-        <v>922</v>
+        <v>918</v>
+      </c>
+      <c r="D384">
+        <v>25</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B385" t="s">
         <v>377</v>
       </c>
       <c r="C385" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D385">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E385" t="s">
         <v>1093</v>
       </c>
       <c r="F385" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B386" t="s">
         <v>378</v>
       </c>
       <c r="C386" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D386">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386" t="s">
         <v>1094</v>
       </c>
       <c r="F386" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B387" t="s">
         <v>379</v>
       </c>
       <c r="C387" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D387">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E387" t="s">
         <v>1095</v>
@@ -8287,16 +8291,16 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B388" t="s">
         <v>380</v>
       </c>
       <c r="C388" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D388">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E388" t="s">
         <v>1096</v>
@@ -8307,16 +8311,16 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B389" t="s">
         <v>381</v>
       </c>
       <c r="C389" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D389">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E389" t="s">
         <v>1097</v>
@@ -8327,19 +8331,19 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B390" t="s">
         <v>382</v>
       </c>
       <c r="C390" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D390">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E390" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F390" t="s">
         <v>1116</v>
@@ -8347,153 +8351,153 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B391" t="s">
         <v>383</v>
       </c>
       <c r="C391" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D391">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E391" t="s">
         <v>1098</v>
       </c>
       <c r="F391" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B392" t="s">
         <v>384</v>
       </c>
       <c r="C392" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D392">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E392" t="s">
         <v>1099</v>
       </c>
       <c r="F392" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B393" t="s">
         <v>385</v>
       </c>
       <c r="C393" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D393">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E393" t="s">
         <v>1100</v>
       </c>
       <c r="F393" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B394" t="s">
         <v>386</v>
       </c>
       <c r="C394" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D394">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E394" t="s">
         <v>1101</v>
       </c>
       <c r="F394" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B395" t="s">
         <v>387</v>
       </c>
       <c r="C395" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D395">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E395" t="s">
         <v>1102</v>
       </c>
-      <c r="F395" t="s">
-        <v>1118</v>
-      </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B396" t="s">
         <v>388</v>
       </c>
       <c r="C396" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D396">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E396" t="s">
         <v>1103</v>
       </c>
+      <c r="F396" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B397" t="s">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="C397" t="s">
-        <v>935</v>
+        <v>608</v>
       </c>
       <c r="D397">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E397" t="s">
         <v>1104</v>
       </c>
       <c r="F397" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B398" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="C398" t="s">
-        <v>612</v>
+        <v>931</v>
       </c>
       <c r="D398">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E398" t="s">
         <v>1105</v>
@@ -8504,111 +8508,105 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B399" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C399" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D399">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E399" t="s">
         <v>1106</v>
       </c>
       <c r="F399" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C400" t="s">
-        <v>937</v>
-      </c>
-      <c r="D400">
-        <v>40</v>
-      </c>
-      <c r="E400" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F400" t="s">
-        <v>1116</v>
+        <v>933</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B401" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C401" t="s">
-        <v>938</v>
+        <v>934</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B402" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C402" t="s">
-        <v>939</v>
-      </c>
-      <c r="F402" t="s">
-        <v>1118</v>
+        <v>935</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B403" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C403" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B404" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C404" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B405" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C405" t="s">
-        <v>942</v>
+        <v>938</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B406" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C406" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F406" t="s">
         <v>1116</v>
@@ -8616,96 +8614,102 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B407" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C407" t="s">
-        <v>944</v>
-      </c>
-      <c r="F407" t="s">
-        <v>1116</v>
+        <v>940</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B408" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C408" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B409" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C409" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B410" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C410" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B411" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C411" t="s">
-        <v>948</v>
+        <v>944</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B412" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C412" t="s">
-        <v>949</v>
-      </c>
-      <c r="F412" t="s">
-        <v>1118</v>
+        <v>945</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B413" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C413" t="s">
-        <v>950</v>
+        <v>946</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B414" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C414" t="s">
-        <v>951</v>
+        <v>947</v>
+      </c>
+      <c r="D414">
+        <v>41</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1107</v>
       </c>
       <c r="F414" t="s">
         <v>1116</v>
@@ -8713,19 +8717,19 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B415" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C415" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D415">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E415" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F415" t="s">
         <v>1116</v>
@@ -8733,19 +8737,19 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B416" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C416" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D416">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E416" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F416" t="s">
         <v>1116</v>
@@ -8753,16 +8757,16 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B417" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C417" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D417">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E417" t="s">
         <v>1109</v>
@@ -8773,56 +8777,56 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B418" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C418" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D418">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E418" t="s">
         <v>1110</v>
       </c>
       <c r="F418" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B419" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C419" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D419">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E419" t="s">
         <v>1111</v>
       </c>
       <c r="F419" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B420" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C420" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D420">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E420" t="s">
         <v>1112</v>
@@ -8833,16 +8837,16 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B421" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C421" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D421">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E421" t="s">
         <v>1113</v>
@@ -8853,1489 +8857,1533 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B422" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C422" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D422">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E422" t="s">
         <v>1114</v>
       </c>
       <c r="F422" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B423" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C423" t="s">
-        <v>960</v>
-      </c>
-      <c r="D423">
-        <v>51</v>
-      </c>
-      <c r="E423" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1116</v>
+        <v>956</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B424" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C424" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B425" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C425" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B426" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C426" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B427" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C427" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B428" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C428" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B429" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C429" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B430" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C430" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B431" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C431" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B432" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C432" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B433" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C433" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B434" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C434" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B435" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C435" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B436" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C436" t="s">
-        <v>973</v>
+        <v>969</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B437" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C437" t="s">
-        <v>974</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1118</v>
+        <v>970</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B438" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C438" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B439" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C439" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B440" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C440" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B441" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C441" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B442" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C442" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B443" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C443" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B444" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C444" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B445" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C445" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B446" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C446" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B447" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C447" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B448" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C448" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B449" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C449" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B450" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C450" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B451" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C451" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B452" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C452" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B453" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C453" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B454" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C454" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B455" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C455" t="s">
-        <v>992</v>
+        <v>988</v>
+      </c>
+      <c r="F455" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B456" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C456" t="s">
-        <v>993</v>
-      </c>
-      <c r="F456" t="s">
-        <v>1117</v>
+        <v>989</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B457" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C457" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B458" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C458" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B459" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C459" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B460" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C460" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B461" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C461" t="s">
-        <v>998</v>
+        <v>994</v>
+      </c>
+      <c r="F461" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B462" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C462" t="s">
-        <v>999</v>
-      </c>
-      <c r="F462" t="s">
-        <v>1120</v>
+        <v>995</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B463" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C463" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B464" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C464" t="s">
+        <v>997</v>
+      </c>
+      <c r="F464" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>1254</v>
+      </c>
+      <c r="B465" t="s">
+        <v>456</v>
+      </c>
+      <c r="C465" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>1255</v>
+      </c>
+      <c r="B466" t="s">
+        <v>457</v>
+      </c>
+      <c r="C466" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>1256</v>
+      </c>
+      <c r="B467" t="s">
+        <v>458</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>1257</v>
+      </c>
+      <c r="B468" t="s">
+        <v>459</v>
+      </c>
+      <c r="C468" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
-      <c r="A465">
-        <v>1253</v>
-      </c>
-      <c r="B465" t="s">
-        <v>455</v>
-      </c>
-      <c r="C465" t="s">
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>1258</v>
+      </c>
+      <c r="B469" t="s">
+        <v>460</v>
+      </c>
+      <c r="C469" t="s">
         <v>1002</v>
       </c>
-      <c r="F465" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6">
-      <c r="A466">
-        <v>1254</v>
-      </c>
-      <c r="B466" t="s">
-        <v>456</v>
-      </c>
-      <c r="C466" t="s">
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>1259</v>
+      </c>
+      <c r="B470" t="s">
+        <v>461</v>
+      </c>
+      <c r="C470" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
-      <c r="A467">
-        <v>1255</v>
-      </c>
-      <c r="B467" t="s">
-        <v>457</v>
-      </c>
-      <c r="C467" t="s">
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>1260</v>
+      </c>
+      <c r="B471" t="s">
+        <v>462</v>
+      </c>
+      <c r="C471" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
-      <c r="A468">
-        <v>1256</v>
-      </c>
-      <c r="B468" t="s">
-        <v>458</v>
-      </c>
-      <c r="C468" t="s">
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>1261</v>
+      </c>
+      <c r="B472" t="s">
+        <v>463</v>
+      </c>
+      <c r="C472" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
-      <c r="A469">
-        <v>1257</v>
-      </c>
-      <c r="B469" t="s">
-        <v>459</v>
-      </c>
-      <c r="C469" t="s">
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>1262</v>
+      </c>
+      <c r="B473" t="s">
+        <v>464</v>
+      </c>
+      <c r="C473" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
-      <c r="A470">
-        <v>1258</v>
-      </c>
-      <c r="B470" t="s">
-        <v>460</v>
-      </c>
-      <c r="C470" t="s">
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>1263</v>
+      </c>
+      <c r="B474" t="s">
+        <v>465</v>
+      </c>
+      <c r="C474" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
-      <c r="A471">
-        <v>1259</v>
-      </c>
-      <c r="B471" t="s">
-        <v>461</v>
-      </c>
-      <c r="C471" t="s">
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>1264</v>
+      </c>
+      <c r="B475" t="s">
+        <v>466</v>
+      </c>
+      <c r="C475" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
-      <c r="A472">
-        <v>1260</v>
-      </c>
-      <c r="B472" t="s">
-        <v>462</v>
-      </c>
-      <c r="C472" t="s">
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>1265</v>
+      </c>
+      <c r="B476" t="s">
+        <v>467</v>
+      </c>
+      <c r="C476" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
-      <c r="A473">
-        <v>1261</v>
-      </c>
-      <c r="B473" t="s">
-        <v>463</v>
-      </c>
-      <c r="C473" t="s">
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>1266</v>
+      </c>
+      <c r="B477" t="s">
+        <v>468</v>
+      </c>
+      <c r="C477" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
-      <c r="A474">
-        <v>1262</v>
-      </c>
-      <c r="B474" t="s">
-        <v>464</v>
-      </c>
-      <c r="C474" t="s">
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>1267</v>
+      </c>
+      <c r="B478" t="s">
+        <v>469</v>
+      </c>
+      <c r="C478" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
-      <c r="A475">
-        <v>1263</v>
-      </c>
-      <c r="B475" t="s">
-        <v>465</v>
-      </c>
-      <c r="C475" t="s">
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>1268</v>
+      </c>
+      <c r="B479" t="s">
+        <v>470</v>
+      </c>
+      <c r="C479" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
-      <c r="A476">
-        <v>1264</v>
-      </c>
-      <c r="B476" t="s">
-        <v>466</v>
-      </c>
-      <c r="C476" t="s">
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>1269</v>
+      </c>
+      <c r="B480" t="s">
+        <v>471</v>
+      </c>
+      <c r="C480" t="s">
         <v>1013</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6">
-      <c r="A477">
-        <v>1265</v>
-      </c>
-      <c r="B477" t="s">
-        <v>467</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6">
-      <c r="A478">
-        <v>1266</v>
-      </c>
-      <c r="B478" t="s">
-        <v>468</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6">
-      <c r="A479">
-        <v>1267</v>
-      </c>
-      <c r="B479" t="s">
-        <v>469</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6">
-      <c r="A480">
-        <v>1268</v>
-      </c>
-      <c r="B480" t="s">
-        <v>470</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B481" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C481" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B482" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C482" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B483" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C483" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="484" spans="1:6">
       <c r="A484">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B484" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C484" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B485" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C485" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="486" spans="1:6">
       <c r="A486">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B486" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C486" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B487" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C487" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B488" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C488" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B489" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C489" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B490" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C490" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="491" spans="1:6">
       <c r="A491">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B491" t="s">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="C491" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="492" spans="1:6">
       <c r="A492">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B492" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="C492" t="s">
-        <v>1029</v>
+        <v>1025</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B493" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C493" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F493" t="s">
-        <v>1117</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="494" spans="1:6">
       <c r="A494">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B494" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C494" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B495" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C495" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B496" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C496" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B497" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C497" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B498" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C498" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B499" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C499" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B500" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C500" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B501" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C501" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B502" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C502" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B503" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C503" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B504" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C504" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B505" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C505" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B506" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C506" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B507" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C507" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="B508" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C508" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B509" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C509" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B510" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C510" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B511" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C511" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B512" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C512" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B513" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C513" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B514" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C514" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B515" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C515" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B516" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C516" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B517" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C517" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B518" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C518" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B519" t="s">
-        <v>507</v>
+        <v>179</v>
       </c>
       <c r="C519" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B520" t="s">
         <v>508</v>
       </c>
       <c r="C520" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B521" t="s">
-        <v>179</v>
+        <v>509</v>
       </c>
       <c r="C521" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B522" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C522" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B523" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C523" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="B524" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C524" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B525" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C525" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B526" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C526" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B527" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C527" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B528" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C528" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B529" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C529" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B530" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C530" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B531" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C531" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B532" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C532" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="B533" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C533" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B534" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C534" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="B535" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C535" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="B536" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C536" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="B537" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C537" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="B538" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C538" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="B539" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C539" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="B540" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C540" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="B541" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C541" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B542" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C542" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="B543" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C543" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="B544" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C544" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="545" spans="1:6">
       <c r="A545">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="B545" t="s">
-        <v>532</v>
+        <v>380</v>
       </c>
       <c r="C545" t="s">
-        <v>1082</v>
+        <v>1078</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="546" spans="1:6">
       <c r="A546">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="B546" t="s">
         <v>533</v>
       </c>
       <c r="C546" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="547" spans="1:6">
       <c r="A547">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="B547" t="s">
         <v>534</v>
       </c>
       <c r="C547" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="548" spans="1:6">
       <c r="A548">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="B548" t="s">
         <v>535</v>
       </c>
       <c r="C548" t="s">
-        <v>1085</v>
+        <v>1081</v>
+      </c>
+      <c r="D548">
+        <v>52</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="549" spans="1:6">
       <c r="A549">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="B549" t="s">
-        <v>536</v>
+        <v>161</v>
       </c>
       <c r="C549" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="550" spans="1:6">
       <c r="A550">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="B550" t="s">
-        <v>537</v>
+        <v>76</v>
       </c>
       <c r="C550" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="551" spans="1:6">
       <c r="A551">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="B551" t="s">
-        <v>381</v>
+        <v>152</v>
       </c>
       <c r="C551" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F551" t="s">
-        <v>1116</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="552" spans="1:6">
       <c r="A552">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="B552" t="s">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="C552" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="553" spans="1:6">
       <c r="A553">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="B553" t="s">
-        <v>539</v>
+        <v>392</v>
       </c>
       <c r="C553" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554">
+        <v>1348</v>
+      </c>
+      <c r="B554" t="s">
+        <v>42</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555">
+        <v>1349</v>
+      </c>
+      <c r="B555" t="s">
+        <v>72</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556">
+        <v>1350</v>
+      </c>
+      <c r="B556" t="s">
+        <v>455</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557">
+        <v>1351</v>
+      </c>
+      <c r="B557" t="s">
+        <v>455</v>
+      </c>
+      <c r="C557" t="s">
         <v>1090</v>
       </c>
     </row>

--- a/public/advisors.xlsx
+++ b/public/advisors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1126">
   <si>
     <t>idAdvisor</t>
   </si>
@@ -3290,6 +3290,15 @@
     <t>duyvb@vbu.edu.vn</t>
   </si>
   <si>
+    <t>ndinhtuan15@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenxuantruong@hpu2.edu.vn</t>
+  </si>
+  <si>
+    <t>cuongtv@uet.vnu.edu.vn</t>
+  </si>
+  <si>
     <t>PTIT</t>
   </si>
   <si>
@@ -3363,6 +3372,9 @@
   </si>
   <si>
     <t>Trường Đại Học Bách Khoa Hà Nội</t>
+  </si>
+  <si>
+    <t>Trường Đại học Sư phạm 2</t>
   </si>
   <si>
     <t>TS</t>
@@ -3738,7 +3750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F557"/>
+  <dimension ref="A1:F560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3775,7 +3787,7 @@
         <v>536</v>
       </c>
       <c r="F2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3792,10 +3804,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="F3" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3809,7 +3821,7 @@
         <v>538</v>
       </c>
       <c r="F4" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3823,7 +3835,7 @@
         <v>539</v>
       </c>
       <c r="F5" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4035,7 +4047,7 @@
         <v>558</v>
       </c>
       <c r="F24" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4060,7 +4072,7 @@
         <v>560</v>
       </c>
       <c r="F26" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4074,7 +4086,7 @@
         <v>561</v>
       </c>
       <c r="F27" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4099,7 +4111,7 @@
         <v>563</v>
       </c>
       <c r="F29" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4113,7 +4125,7 @@
         <v>564</v>
       </c>
       <c r="F30" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4127,7 +4139,7 @@
         <v>565</v>
       </c>
       <c r="F31" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4141,7 +4153,7 @@
         <v>566</v>
       </c>
       <c r="F32" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4166,7 +4178,7 @@
         <v>568</v>
       </c>
       <c r="F34" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4202,7 +4214,7 @@
         <v>571</v>
       </c>
       <c r="F37" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4216,7 +4228,7 @@
         <v>572</v>
       </c>
       <c r="F38" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4230,7 +4242,7 @@
         <v>573</v>
       </c>
       <c r="F39" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4244,7 +4256,7 @@
         <v>574</v>
       </c>
       <c r="F40" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4258,7 +4270,7 @@
         <v>575</v>
       </c>
       <c r="F41" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4283,7 +4295,7 @@
         <v>577</v>
       </c>
       <c r="F43" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4297,7 +4309,7 @@
         <v>578</v>
       </c>
       <c r="F44" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4333,7 +4345,7 @@
         <v>581</v>
       </c>
       <c r="F47" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4358,7 +4370,7 @@
         <v>583</v>
       </c>
       <c r="F49" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4383,7 +4395,7 @@
         <v>585</v>
       </c>
       <c r="F51" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4408,7 +4420,7 @@
         <v>587</v>
       </c>
       <c r="F53" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4466,7 +4478,7 @@
         <v>592</v>
       </c>
       <c r="F58" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4480,7 +4492,7 @@
         <v>593</v>
       </c>
       <c r="F59" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4505,7 +4517,7 @@
         <v>595</v>
       </c>
       <c r="F61" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4541,7 +4553,7 @@
         <v>598</v>
       </c>
       <c r="F64" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4566,7 +4578,7 @@
         <v>600</v>
       </c>
       <c r="F66" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4591,7 +4603,7 @@
         <v>602</v>
       </c>
       <c r="F68" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4605,7 +4617,7 @@
         <v>603</v>
       </c>
       <c r="F69" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4619,7 +4631,7 @@
         <v>604</v>
       </c>
       <c r="F70" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4633,7 +4645,7 @@
         <v>605</v>
       </c>
       <c r="F71" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4647,7 +4659,7 @@
         <v>606</v>
       </c>
       <c r="F72" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4661,7 +4673,7 @@
         <v>607</v>
       </c>
       <c r="F73" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4675,7 +4687,7 @@
         <v>608</v>
       </c>
       <c r="F74" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4689,7 +4701,7 @@
         <v>609</v>
       </c>
       <c r="F75" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4736,7 +4748,7 @@
         <v>613</v>
       </c>
       <c r="F79" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5256,7 +5268,7 @@
         <v>660</v>
       </c>
       <c r="F126" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5369,7 +5381,7 @@
         <v>670</v>
       </c>
       <c r="F136" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5460,7 +5472,7 @@
         <v>678</v>
       </c>
       <c r="F144" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5518,7 +5530,7 @@
         <v>683</v>
       </c>
       <c r="F149" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5543,7 +5555,7 @@
         <v>685</v>
       </c>
       <c r="F151" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5568,7 +5580,7 @@
         <v>687</v>
       </c>
       <c r="F153" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5604,7 +5616,7 @@
         <v>690</v>
       </c>
       <c r="F156" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5651,7 +5663,7 @@
         <v>694</v>
       </c>
       <c r="F160" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5665,7 +5677,7 @@
         <v>695</v>
       </c>
       <c r="F161" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5679,7 +5691,7 @@
         <v>696</v>
       </c>
       <c r="F162" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5814,7 +5826,7 @@
         <v>708</v>
       </c>
       <c r="F174" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -6070,7 +6082,7 @@
         <v>731</v>
       </c>
       <c r="F197" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6117,7 +6129,7 @@
         <v>735</v>
       </c>
       <c r="F201" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6329,7 +6341,7 @@
         <v>754</v>
       </c>
       <c r="F220" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6563,7 +6575,7 @@
         <v>775</v>
       </c>
       <c r="F241" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6577,7 +6589,7 @@
         <v>776</v>
       </c>
       <c r="F242" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6624,7 +6636,7 @@
         <v>780</v>
       </c>
       <c r="F246" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6660,7 +6672,7 @@
         <v>783</v>
       </c>
       <c r="F249" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6773,7 +6785,7 @@
         <v>793</v>
       </c>
       <c r="F259" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6908,7 +6920,7 @@
         <v>805</v>
       </c>
       <c r="F271" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6933,7 +6945,7 @@
         <v>807</v>
       </c>
       <c r="F273" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7024,7 +7036,7 @@
         <v>815</v>
       </c>
       <c r="F281" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7038,7 +7050,7 @@
         <v>816</v>
       </c>
       <c r="F282" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7063,7 +7075,7 @@
         <v>818</v>
       </c>
       <c r="F284" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7088,7 +7100,7 @@
         <v>820</v>
       </c>
       <c r="F286" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7256,7 +7268,7 @@
         <v>835</v>
       </c>
       <c r="F301" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7369,7 +7381,7 @@
         <v>845</v>
       </c>
       <c r="F311" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7383,7 +7395,7 @@
         <v>846</v>
       </c>
       <c r="F312" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7463,7 +7475,7 @@
         <v>853</v>
       </c>
       <c r="F319" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7477,7 +7489,7 @@
         <v>854</v>
       </c>
       <c r="F320" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7491,7 +7503,7 @@
         <v>855</v>
       </c>
       <c r="F321" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7505,7 +7517,7 @@
         <v>856</v>
       </c>
       <c r="F322" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7552,7 +7564,7 @@
         <v>860</v>
       </c>
       <c r="F326" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7621,7 +7633,7 @@
         <v>866</v>
       </c>
       <c r="F332" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7701,7 +7713,7 @@
         <v>873</v>
       </c>
       <c r="F339" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7913,7 +7925,7 @@
         <v>892</v>
       </c>
       <c r="F358" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7927,7 +7939,7 @@
         <v>893</v>
       </c>
       <c r="F359" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7952,7 +7964,7 @@
         <v>895</v>
       </c>
       <c r="F361" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7966,7 +7978,7 @@
         <v>896</v>
       </c>
       <c r="F362" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7991,7 +8003,7 @@
         <v>898</v>
       </c>
       <c r="F364" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8126,7 +8138,7 @@
         <v>910</v>
       </c>
       <c r="F376" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8184,7 +8196,7 @@
         <v>915</v>
       </c>
       <c r="F381" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8223,10 +8235,10 @@
         <v>25</v>
       </c>
       <c r="E384" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="F384" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8243,10 +8255,10 @@
         <v>26</v>
       </c>
       <c r="E385" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="F385" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8263,10 +8275,10 @@
         <v>27</v>
       </c>
       <c r="E386" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="F386" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8283,10 +8295,10 @@
         <v>28</v>
       </c>
       <c r="E387" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="F387" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8303,10 +8315,10 @@
         <v>29</v>
       </c>
       <c r="E388" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F388" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8323,10 +8335,10 @@
         <v>30</v>
       </c>
       <c r="E389" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="F389" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8343,10 +8355,10 @@
         <v>31</v>
       </c>
       <c r="E390" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="F390" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8363,10 +8375,10 @@
         <v>32</v>
       </c>
       <c r="E391" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="F391" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8383,10 +8395,10 @@
         <v>33</v>
       </c>
       <c r="E392" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F392" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8403,10 +8415,10 @@
         <v>34</v>
       </c>
       <c r="E393" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F393" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8423,10 +8435,10 @@
         <v>35</v>
       </c>
       <c r="E394" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="F394" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8443,7 +8455,7 @@
         <v>36</v>
       </c>
       <c r="E395" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8460,10 +8472,10 @@
         <v>37</v>
       </c>
       <c r="E396" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="F396" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8480,10 +8492,10 @@
         <v>38</v>
       </c>
       <c r="E397" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F397" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8500,10 +8512,10 @@
         <v>39</v>
       </c>
       <c r="E398" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F398" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8520,10 +8532,10 @@
         <v>40</v>
       </c>
       <c r="E399" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="F399" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8548,7 +8560,7 @@
         <v>934</v>
       </c>
       <c r="F401" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8595,7 +8607,7 @@
         <v>938</v>
       </c>
       <c r="F405" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8609,7 +8621,7 @@
         <v>939</v>
       </c>
       <c r="F406" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8667,7 +8679,7 @@
         <v>944</v>
       </c>
       <c r="F411" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8692,7 +8704,7 @@
         <v>946</v>
       </c>
       <c r="F413" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8709,10 +8721,10 @@
         <v>41</v>
       </c>
       <c r="E414" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="F414" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8729,10 +8741,10 @@
         <v>42</v>
       </c>
       <c r="E415" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F415" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8749,10 +8761,10 @@
         <v>44</v>
       </c>
       <c r="E416" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F416" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8769,10 +8781,10 @@
         <v>45</v>
       </c>
       <c r="E417" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="F417" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8789,10 +8801,10 @@
         <v>46</v>
       </c>
       <c r="E418" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="F418" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8809,10 +8821,10 @@
         <v>48</v>
       </c>
       <c r="E419" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F419" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8829,10 +8841,10 @@
         <v>49</v>
       </c>
       <c r="E420" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="F420" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8849,10 +8861,10 @@
         <v>50</v>
       </c>
       <c r="E421" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F421" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8869,10 +8881,10 @@
         <v>51</v>
       </c>
       <c r="E422" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="F422" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -9029,7 +9041,7 @@
         <v>969</v>
       </c>
       <c r="F436" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9241,7 +9253,7 @@
         <v>988</v>
       </c>
       <c r="F455" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -9310,7 +9322,7 @@
         <v>994</v>
       </c>
       <c r="F461" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9346,7 +9358,7 @@
         <v>997</v>
       </c>
       <c r="F464" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -9657,7 +9669,7 @@
         <v>1025</v>
       </c>
       <c r="F492" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10243,7 +10255,7 @@
         <v>1078</v>
       </c>
       <c r="F545" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -10282,10 +10294,10 @@
         <v>52</v>
       </c>
       <c r="E548" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="F548" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -10342,6 +10354,9 @@
       <c r="C553" t="s">
         <v>1086</v>
       </c>
+      <c r="F553" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="554" spans="1:6">
       <c r="A554">
@@ -10385,6 +10400,51 @@
       </c>
       <c r="C557" t="s">
         <v>1090</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558">
+        <v>1352</v>
+      </c>
+      <c r="B558" t="s">
+        <v>317</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559">
+        <v>1353</v>
+      </c>
+      <c r="B559" t="s">
+        <v>158</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D559">
+        <v>53</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560">
+        <v>1354</v>
+      </c>
+      <c r="B560" t="s">
+        <v>396</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>

--- a/public/advisors.xlsx
+++ b/public/advisors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1130">
   <si>
     <t>idAdvisor</t>
   </si>
@@ -1622,6 +1622,12 @@
   </si>
   <si>
     <t>Tạ Anh Sơn</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Việt</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Huy</t>
   </si>
   <si>
     <t>tunghx@vnu.edu.vn</t>
@@ -3284,9 +3290,6 @@
     <t>phuonghd@gmail.com</t>
   </si>
   <si>
-    <t>duyvb@vnu.edu.vb</t>
-  </si>
-  <si>
     <t>duyvb@vbu.edu.vn</t>
   </si>
   <si>
@@ -3297,6 +3300,15 @@
   </si>
   <si>
     <t>cuongtv@uet.vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>hieuvd@uet.vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>thv@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vnh8503@vnu.edu.vn</t>
   </si>
   <si>
     <t>PTIT</t>
@@ -3750,7 +3762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F560"/>
+  <dimension ref="A1:F562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3784,10 +3796,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F2" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3798,16 +3810,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="F3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3818,10 +3830,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F4" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3832,10 +3844,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F5" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3846,7 +3858,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3857,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3868,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3879,7 +3891,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3890,7 +3902,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3901,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3912,7 +3924,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3923,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3934,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3945,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3956,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3967,7 +3979,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3978,7 +3990,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3989,7 +4001,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4000,7 +4012,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4011,7 +4023,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4022,7 +4034,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4033,7 +4045,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4044,10 +4056,10 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F24" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4058,7 +4070,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4069,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F26" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4083,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F27" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4097,7 +4109,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4108,10 +4120,10 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F29" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4122,10 +4134,10 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F30" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4136,10 +4148,10 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F31" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4150,10 +4162,10 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F32" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4164,7 +4176,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4175,10 +4187,10 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F34" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4189,7 +4201,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4200,7 +4212,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4211,10 +4223,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F37" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4225,10 +4237,10 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F38" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4239,10 +4251,10 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F39" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4253,10 +4265,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F40" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4267,10 +4279,10 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F41" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4281,7 +4293,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4292,10 +4304,10 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F43" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4306,10 +4318,10 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F44" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4320,7 +4332,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4331,7 +4343,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4342,10 +4354,10 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F47" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4356,7 +4368,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4367,10 +4379,10 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F49" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4381,7 +4393,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4392,10 +4404,10 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F51" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4406,7 +4418,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4417,10 +4429,10 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F53" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4431,7 +4443,7 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4442,7 +4454,7 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4453,7 +4465,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4464,7 +4476,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4475,10 +4487,10 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F58" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4489,10 +4501,10 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F59" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4503,7 +4515,7 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4514,10 +4526,10 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F61" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4528,7 +4540,7 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4539,7 +4551,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4550,10 +4562,10 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F64" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4564,7 +4576,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4575,10 +4587,10 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F66" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4589,7 +4601,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4600,10 +4612,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F68" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4614,10 +4626,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F69" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4628,10 +4640,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F70" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4642,10 +4654,10 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F71" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4656,10 +4668,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F72" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4670,10 +4682,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F73" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4684,10 +4696,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F74" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4698,10 +4710,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F75" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4712,7 +4724,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4723,7 +4735,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4734,7 +4746,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4745,10 +4757,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F79" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4759,7 +4771,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4770,7 +4782,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4781,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4792,7 +4804,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4803,7 +4815,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4814,7 +4826,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4825,7 +4837,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4836,7 +4848,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4847,7 +4859,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4858,7 +4870,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4869,7 +4881,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4880,7 +4892,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4891,7 +4903,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4902,7 +4914,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4913,7 +4925,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4924,7 +4936,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4935,7 +4947,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4946,7 +4958,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4957,7 +4969,7 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4968,7 +4980,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4979,7 +4991,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4990,7 +5002,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5001,7 +5013,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5012,7 +5024,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -5023,7 +5035,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -5034,7 +5046,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -5045,7 +5057,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -5056,7 +5068,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -5067,7 +5079,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5078,7 +5090,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5089,7 +5101,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5100,7 +5112,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5111,7 +5123,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5122,7 +5134,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5133,7 +5145,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5144,7 +5156,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5155,7 +5167,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5166,7 +5178,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5177,7 +5189,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5188,7 +5200,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5199,7 +5211,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5210,7 +5222,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5221,7 +5233,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5232,7 +5244,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5243,7 +5255,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5254,7 +5266,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5265,10 +5277,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F126" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5279,7 +5291,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5290,7 +5302,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5301,7 +5313,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5312,7 +5324,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5323,7 +5335,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5334,7 +5346,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5345,7 +5357,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5356,7 +5368,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5367,7 +5379,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5378,10 +5390,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F136" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5392,7 +5404,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5403,7 +5415,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5414,7 +5426,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5425,7 +5437,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5436,7 +5448,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5447,7 +5459,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5458,7 +5470,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5469,10 +5481,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F144" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5483,7 +5495,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5494,7 +5506,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5505,7 +5517,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5516,7 +5528,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5527,10 +5539,10 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F149" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5541,7 +5553,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5552,10 +5564,10 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F151" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5566,7 +5578,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5577,10 +5589,10 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F153" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5591,7 +5603,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5602,7 +5614,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5613,10 +5625,10 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F156" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5627,7 +5639,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5638,7 +5650,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5649,7 +5661,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5660,10 +5672,10 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F160" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5674,10 +5686,10 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F161" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5688,10 +5700,10 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F162" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5702,7 +5714,7 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5713,7 +5725,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5724,7 +5736,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5735,7 +5747,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5746,7 +5758,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5757,7 +5769,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5768,7 +5780,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5779,7 +5791,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5790,7 +5802,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5801,7 +5813,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5812,7 +5824,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5823,10 +5835,10 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F174" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5837,7 +5849,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5848,7 +5860,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5859,7 +5871,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5870,7 +5882,7 @@
         <v>158</v>
       </c>
       <c r="C178" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5881,7 +5893,7 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5892,7 +5904,7 @@
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5903,7 +5915,7 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5914,7 +5926,7 @@
         <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5925,7 +5937,7 @@
         <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5936,7 +5948,7 @@
         <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5947,7 +5959,7 @@
         <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5958,7 +5970,7 @@
         <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5969,7 +5981,7 @@
         <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5980,7 +5992,7 @@
         <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5991,7 +6003,7 @@
         <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6002,7 +6014,7 @@
         <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6013,7 +6025,7 @@
         <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6024,7 +6036,7 @@
         <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6035,7 +6047,7 @@
         <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6046,7 +6058,7 @@
         <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6057,7 +6069,7 @@
         <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6068,7 +6080,7 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6079,10 +6091,10 @@
         <v>71</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F197" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6093,7 +6105,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6104,7 +6116,7 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6115,7 +6127,7 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6126,10 +6138,10 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F201" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6140,7 +6152,7 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6151,7 +6163,7 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6162,7 +6174,7 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6173,7 +6185,7 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6184,7 +6196,7 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6195,7 +6207,7 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6206,7 +6218,7 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6217,7 +6229,7 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6228,7 +6240,7 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6239,7 +6251,7 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6250,7 +6262,7 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6261,7 +6273,7 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6272,7 +6284,7 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6283,7 +6295,7 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6294,7 +6306,7 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6305,7 +6317,7 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6316,7 +6328,7 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6327,7 +6339,7 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6338,10 +6350,10 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F220" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6352,7 +6364,7 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6363,7 +6375,7 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6374,7 +6386,7 @@
         <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6385,7 +6397,7 @@
         <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6396,7 +6408,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6407,7 +6419,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6418,7 +6430,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6429,7 +6441,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6440,7 +6452,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6451,7 +6463,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6462,7 +6474,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6473,7 +6485,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6484,7 +6496,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6495,7 +6507,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6506,7 +6518,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6517,7 +6529,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6528,7 +6540,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6539,7 +6551,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6550,7 +6562,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6561,7 +6573,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6572,10 +6584,10 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F241" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6586,10 +6598,10 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F242" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6600,7 +6612,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6611,7 +6623,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6622,7 +6634,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6633,10 +6645,10 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F246" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6647,7 +6659,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6658,7 +6670,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6669,10 +6681,10 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F249" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6683,7 +6695,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6694,7 +6706,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6705,7 +6717,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6716,7 +6728,7 @@
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6727,7 +6739,7 @@
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6738,7 +6750,7 @@
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6749,7 +6761,7 @@
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6760,7 +6772,7 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6771,7 +6783,7 @@
         <v>246</v>
       </c>
       <c r="C258" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6782,10 +6794,10 @@
         <v>256</v>
       </c>
       <c r="C259" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F259" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6796,7 +6808,7 @@
         <v>257</v>
       </c>
       <c r="C260" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6807,7 +6819,7 @@
         <v>258</v>
       </c>
       <c r="C261" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6818,7 +6830,7 @@
         <v>259</v>
       </c>
       <c r="C262" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6829,7 +6841,7 @@
         <v>260</v>
       </c>
       <c r="C263" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6840,7 +6852,7 @@
         <v>261</v>
       </c>
       <c r="C264" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6851,7 +6863,7 @@
         <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6862,7 +6874,7 @@
         <v>263</v>
       </c>
       <c r="C266" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6873,7 +6885,7 @@
         <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6884,7 +6896,7 @@
         <v>265</v>
       </c>
       <c r="C268" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6895,7 +6907,7 @@
         <v>266</v>
       </c>
       <c r="C269" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6906,7 +6918,7 @@
         <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6917,10 +6929,10 @@
         <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F271" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6931,7 +6943,7 @@
         <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6942,10 +6954,10 @@
         <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F273" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6956,7 +6968,7 @@
         <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6967,7 +6979,7 @@
         <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6978,7 +6990,7 @@
         <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6989,7 +7001,7 @@
         <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7000,7 +7012,7 @@
         <v>275</v>
       </c>
       <c r="C278" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7011,7 +7023,7 @@
         <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7022,7 +7034,7 @@
         <v>277</v>
       </c>
       <c r="C280" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7033,10 +7045,10 @@
         <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F281" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7047,10 +7059,10 @@
         <v>279</v>
       </c>
       <c r="C282" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F282" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7061,7 +7073,7 @@
         <v>280</v>
       </c>
       <c r="C283" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7072,10 +7084,10 @@
         <v>71</v>
       </c>
       <c r="C284" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F284" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7086,7 +7098,7 @@
         <v>281</v>
       </c>
       <c r="C285" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7097,10 +7109,10 @@
         <v>282</v>
       </c>
       <c r="C286" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F286" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7111,7 +7123,7 @@
         <v>208</v>
       </c>
       <c r="C287" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7122,7 +7134,7 @@
         <v>283</v>
       </c>
       <c r="C288" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7133,7 +7145,7 @@
         <v>284</v>
       </c>
       <c r="C289" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7144,7 +7156,7 @@
         <v>285</v>
       </c>
       <c r="C290" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7155,7 +7167,7 @@
         <v>286</v>
       </c>
       <c r="C291" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7166,7 +7178,7 @@
         <v>287</v>
       </c>
       <c r="C292" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7177,7 +7189,7 @@
         <v>288</v>
       </c>
       <c r="C293" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7188,7 +7200,7 @@
         <v>289</v>
       </c>
       <c r="C294" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7199,7 +7211,7 @@
         <v>290</v>
       </c>
       <c r="C295" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7210,7 +7222,7 @@
         <v>291</v>
       </c>
       <c r="C296" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7221,7 +7233,7 @@
         <v>292</v>
       </c>
       <c r="C297" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7232,7 +7244,7 @@
         <v>293</v>
       </c>
       <c r="C298" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7243,7 +7255,7 @@
         <v>294</v>
       </c>
       <c r="C299" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7254,7 +7266,7 @@
         <v>295</v>
       </c>
       <c r="C300" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7265,10 +7277,10 @@
         <v>296</v>
       </c>
       <c r="C301" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F301" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7279,7 +7291,10 @@
         <v>297</v>
       </c>
       <c r="C302" t="s">
-        <v>836</v>
+        <v>838</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7290,7 +7305,7 @@
         <v>298</v>
       </c>
       <c r="C303" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7301,7 +7316,7 @@
         <v>299</v>
       </c>
       <c r="C304" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7312,7 +7327,7 @@
         <v>300</v>
       </c>
       <c r="C305" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7323,7 +7338,7 @@
         <v>301</v>
       </c>
       <c r="C306" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7334,7 +7349,7 @@
         <v>302</v>
       </c>
       <c r="C307" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7345,7 +7360,7 @@
         <v>303</v>
       </c>
       <c r="C308" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7356,7 +7371,7 @@
         <v>304</v>
       </c>
       <c r="C309" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7367,7 +7382,7 @@
         <v>305</v>
       </c>
       <c r="C310" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7378,10 +7393,10 @@
         <v>306</v>
       </c>
       <c r="C311" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F311" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7392,10 +7407,10 @@
         <v>307</v>
       </c>
       <c r="C312" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F312" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7406,7 +7421,7 @@
         <v>308</v>
       </c>
       <c r="C313" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7417,7 +7432,7 @@
         <v>309</v>
       </c>
       <c r="C314" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7428,7 +7443,7 @@
         <v>310</v>
       </c>
       <c r="C315" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7439,7 +7454,7 @@
         <v>311</v>
       </c>
       <c r="C316" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7450,7 +7465,7 @@
         <v>312</v>
       </c>
       <c r="C317" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7461,7 +7476,7 @@
         <v>313</v>
       </c>
       <c r="C318" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7472,10 +7487,10 @@
         <v>314</v>
       </c>
       <c r="C319" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F319" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7486,10 +7501,10 @@
         <v>315</v>
       </c>
       <c r="C320" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F320" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7500,10 +7515,10 @@
         <v>316</v>
       </c>
       <c r="C321" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F321" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7514,10 +7529,10 @@
         <v>317</v>
       </c>
       <c r="C322" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F322" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7528,7 +7543,7 @@
         <v>318</v>
       </c>
       <c r="C323" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7539,7 +7554,7 @@
         <v>319</v>
       </c>
       <c r="C324" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7550,7 +7565,7 @@
         <v>320</v>
       </c>
       <c r="C325" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7561,10 +7576,10 @@
         <v>321</v>
       </c>
       <c r="C326" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F326" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7575,7 +7590,7 @@
         <v>322</v>
       </c>
       <c r="C327" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7586,7 +7601,7 @@
         <v>323</v>
       </c>
       <c r="C328" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7597,7 +7612,7 @@
         <v>324</v>
       </c>
       <c r="C329" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7608,7 +7623,7 @@
         <v>319</v>
       </c>
       <c r="C330" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7619,7 +7634,7 @@
         <v>325</v>
       </c>
       <c r="C331" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7630,10 +7645,10 @@
         <v>326</v>
       </c>
       <c r="C332" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F332" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7644,7 +7659,7 @@
         <v>327</v>
       </c>
       <c r="C333" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7655,7 +7670,7 @@
         <v>328</v>
       </c>
       <c r="C334" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7666,7 +7681,7 @@
         <v>329</v>
       </c>
       <c r="C335" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7677,7 +7692,7 @@
         <v>330</v>
       </c>
       <c r="C336" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7688,7 +7703,7 @@
         <v>331</v>
       </c>
       <c r="C337" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7699,7 +7714,7 @@
         <v>332</v>
       </c>
       <c r="C338" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7710,10 +7725,10 @@
         <v>333</v>
       </c>
       <c r="C339" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F339" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7724,7 +7739,7 @@
         <v>334</v>
       </c>
       <c r="C340" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7735,7 +7750,7 @@
         <v>335</v>
       </c>
       <c r="C341" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7746,7 +7761,7 @@
         <v>336</v>
       </c>
       <c r="C342" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7757,7 +7772,7 @@
         <v>337</v>
       </c>
       <c r="C343" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7768,7 +7783,7 @@
         <v>338</v>
       </c>
       <c r="C344" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7779,7 +7794,7 @@
         <v>339</v>
       </c>
       <c r="C345" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7790,7 +7805,7 @@
         <v>340</v>
       </c>
       <c r="C346" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7801,7 +7816,7 @@
         <v>341</v>
       </c>
       <c r="C347" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7812,7 +7827,7 @@
         <v>342</v>
       </c>
       <c r="C348" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7823,7 +7838,7 @@
         <v>343</v>
       </c>
       <c r="C349" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7834,7 +7849,7 @@
         <v>344</v>
       </c>
       <c r="C350" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7845,7 +7860,7 @@
         <v>345</v>
       </c>
       <c r="C351" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7856,7 +7871,7 @@
         <v>346</v>
       </c>
       <c r="C352" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7867,7 +7882,7 @@
         <v>347</v>
       </c>
       <c r="C353" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7878,7 +7893,7 @@
         <v>348</v>
       </c>
       <c r="C354" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7889,7 +7904,7 @@
         <v>349</v>
       </c>
       <c r="C355" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7900,7 +7915,7 @@
         <v>350</v>
       </c>
       <c r="C356" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7911,7 +7926,7 @@
         <v>351</v>
       </c>
       <c r="C357" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7922,10 +7937,10 @@
         <v>352</v>
       </c>
       <c r="C358" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F358" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7936,10 +7951,10 @@
         <v>353</v>
       </c>
       <c r="C359" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F359" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7950,7 +7965,7 @@
         <v>354</v>
       </c>
       <c r="C360" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7961,10 +7976,10 @@
         <v>355</v>
       </c>
       <c r="C361" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F361" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7975,10 +7990,10 @@
         <v>356</v>
       </c>
       <c r="C362" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F362" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7989,7 +8004,7 @@
         <v>357</v>
       </c>
       <c r="C363" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -8000,10 +8015,10 @@
         <v>358</v>
       </c>
       <c r="C364" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F364" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8014,7 +8029,7 @@
         <v>359</v>
       </c>
       <c r="C365" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8025,7 +8040,7 @@
         <v>360</v>
       </c>
       <c r="C366" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8036,7 +8051,7 @@
         <v>361</v>
       </c>
       <c r="C367" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8047,7 +8062,7 @@
         <v>362</v>
       </c>
       <c r="C368" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8058,7 +8073,7 @@
         <v>363</v>
       </c>
       <c r="C369" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8069,7 +8084,7 @@
         <v>364</v>
       </c>
       <c r="C370" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8080,7 +8095,7 @@
         <v>365</v>
       </c>
       <c r="C371" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8091,7 +8106,7 @@
         <v>366</v>
       </c>
       <c r="C372" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8102,7 +8117,7 @@
         <v>367</v>
       </c>
       <c r="C373" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8113,7 +8128,7 @@
         <v>368</v>
       </c>
       <c r="C374" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8124,7 +8139,7 @@
         <v>178</v>
       </c>
       <c r="C375" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8135,10 +8150,10 @@
         <v>369</v>
       </c>
       <c r="C376" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F376" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8149,7 +8164,7 @@
         <v>147</v>
       </c>
       <c r="C377" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8160,7 +8175,7 @@
         <v>370</v>
       </c>
       <c r="C378" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8171,7 +8186,7 @@
         <v>371</v>
       </c>
       <c r="C379" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8182,7 +8197,7 @@
         <v>372</v>
       </c>
       <c r="C380" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8193,10 +8208,10 @@
         <v>373</v>
       </c>
       <c r="C381" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F381" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8207,7 +8222,7 @@
         <v>374</v>
       </c>
       <c r="C382" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8218,7 +8233,7 @@
         <v>375</v>
       </c>
       <c r="C383" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8229,16 +8244,16 @@
         <v>376</v>
       </c>
       <c r="C384" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D384">
         <v>25</v>
       </c>
       <c r="E384" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="F384" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8249,16 +8264,16 @@
         <v>377</v>
       </c>
       <c r="C385" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D385">
         <v>26</v>
       </c>
       <c r="E385" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="F385" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8269,16 +8284,16 @@
         <v>378</v>
       </c>
       <c r="C386" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D386">
         <v>27</v>
       </c>
       <c r="E386" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="F386" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8289,16 +8304,16 @@
         <v>379</v>
       </c>
       <c r="C387" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D387">
         <v>28</v>
       </c>
       <c r="E387" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="F387" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8309,16 +8324,16 @@
         <v>380</v>
       </c>
       <c r="C388" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D388">
         <v>29</v>
       </c>
       <c r="E388" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F388" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8329,16 +8344,16 @@
         <v>381</v>
       </c>
       <c r="C389" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D389">
         <v>30</v>
       </c>
       <c r="E389" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="F389" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8349,16 +8364,16 @@
         <v>382</v>
       </c>
       <c r="C390" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D390">
         <v>31</v>
       </c>
       <c r="E390" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="F390" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8369,16 +8384,16 @@
         <v>383</v>
       </c>
       <c r="C391" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D391">
         <v>32</v>
       </c>
       <c r="E391" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F391" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8389,16 +8404,16 @@
         <v>384</v>
       </c>
       <c r="C392" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D392">
         <v>33</v>
       </c>
       <c r="E392" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="F392" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8409,16 +8424,16 @@
         <v>385</v>
       </c>
       <c r="C393" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D393">
         <v>34</v>
       </c>
       <c r="E393" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="F393" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8429,16 +8444,16 @@
         <v>386</v>
       </c>
       <c r="C394" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D394">
         <v>35</v>
       </c>
       <c r="E394" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="F394" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8449,13 +8464,13 @@
         <v>387</v>
       </c>
       <c r="C395" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D395">
         <v>36</v>
       </c>
       <c r="E395" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8466,16 +8481,16 @@
         <v>388</v>
       </c>
       <c r="C396" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D396">
         <v>37</v>
       </c>
       <c r="E396" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="F396" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8486,16 +8501,16 @@
         <v>76</v>
       </c>
       <c r="C397" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D397">
         <v>38</v>
       </c>
       <c r="E397" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="F397" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8506,16 +8521,16 @@
         <v>389</v>
       </c>
       <c r="C398" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D398">
         <v>39</v>
       </c>
       <c r="E398" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F398" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8526,16 +8541,16 @@
         <v>390</v>
       </c>
       <c r="C399" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D399">
         <v>40</v>
       </c>
       <c r="E399" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="F399" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8546,7 +8561,7 @@
         <v>391</v>
       </c>
       <c r="C400" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8557,10 +8572,10 @@
         <v>392</v>
       </c>
       <c r="C401" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F401" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8571,7 +8586,7 @@
         <v>393</v>
       </c>
       <c r="C402" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8582,7 +8597,7 @@
         <v>394</v>
       </c>
       <c r="C403" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8593,7 +8608,7 @@
         <v>395</v>
       </c>
       <c r="C404" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8604,10 +8619,10 @@
         <v>396</v>
       </c>
       <c r="C405" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F405" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8618,10 +8633,10 @@
         <v>397</v>
       </c>
       <c r="C406" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F406" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8632,7 +8647,7 @@
         <v>398</v>
       </c>
       <c r="C407" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8643,7 +8658,7 @@
         <v>399</v>
       </c>
       <c r="C408" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8654,7 +8669,7 @@
         <v>400</v>
       </c>
       <c r="C409" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8665,7 +8680,7 @@
         <v>401</v>
       </c>
       <c r="C410" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8676,10 +8691,10 @@
         <v>402</v>
       </c>
       <c r="C411" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F411" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8690,7 +8705,7 @@
         <v>403</v>
       </c>
       <c r="C412" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8701,10 +8716,10 @@
         <v>404</v>
       </c>
       <c r="C413" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F413" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8715,16 +8730,16 @@
         <v>405</v>
       </c>
       <c r="C414" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D414">
         <v>41</v>
       </c>
       <c r="E414" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F414" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8735,16 +8750,16 @@
         <v>406</v>
       </c>
       <c r="C415" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D415">
         <v>42</v>
       </c>
       <c r="E415" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F415" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8755,16 +8770,16 @@
         <v>407</v>
       </c>
       <c r="C416" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D416">
         <v>44</v>
       </c>
       <c r="E416" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="F416" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8775,16 +8790,16 @@
         <v>408</v>
       </c>
       <c r="C417" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D417">
         <v>45</v>
       </c>
       <c r="E417" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="F417" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8795,16 +8810,16 @@
         <v>409</v>
       </c>
       <c r="C418" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D418">
         <v>46</v>
       </c>
       <c r="E418" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="F418" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8815,16 +8830,16 @@
         <v>410</v>
       </c>
       <c r="C419" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D419">
         <v>48</v>
       </c>
       <c r="E419" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F419" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8835,16 +8850,16 @@
         <v>411</v>
       </c>
       <c r="C420" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D420">
         <v>49</v>
       </c>
       <c r="E420" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="F420" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8855,16 +8870,16 @@
         <v>412</v>
       </c>
       <c r="C421" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D421">
         <v>50</v>
       </c>
       <c r="E421" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="F421" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8875,16 +8890,16 @@
         <v>413</v>
       </c>
       <c r="C422" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D422">
         <v>51</v>
       </c>
       <c r="E422" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="F422" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8895,7 +8910,7 @@
         <v>414</v>
       </c>
       <c r="C423" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8906,7 +8921,7 @@
         <v>415</v>
       </c>
       <c r="C424" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8917,7 +8932,7 @@
         <v>416</v>
       </c>
       <c r="C425" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8928,7 +8943,7 @@
         <v>417</v>
       </c>
       <c r="C426" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8939,7 +8954,7 @@
         <v>418</v>
       </c>
       <c r="C427" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8950,7 +8965,7 @@
         <v>419</v>
       </c>
       <c r="C428" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -8961,7 +8976,7 @@
         <v>420</v>
       </c>
       <c r="C429" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -8972,7 +8987,7 @@
         <v>421</v>
       </c>
       <c r="C430" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -8983,7 +8998,7 @@
         <v>422</v>
       </c>
       <c r="C431" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -8994,7 +9009,7 @@
         <v>423</v>
       </c>
       <c r="C432" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9005,7 +9020,7 @@
         <v>424</v>
       </c>
       <c r="C433" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9016,7 +9031,7 @@
         <v>425</v>
       </c>
       <c r="C434" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9027,7 +9042,7 @@
         <v>426</v>
       </c>
       <c r="C435" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9038,10 +9053,10 @@
         <v>427</v>
       </c>
       <c r="C436" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F436" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9052,7 +9067,7 @@
         <v>428</v>
       </c>
       <c r="C437" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9063,7 +9078,7 @@
         <v>429</v>
       </c>
       <c r="C438" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9074,7 +9089,7 @@
         <v>430</v>
       </c>
       <c r="C439" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9085,7 +9100,7 @@
         <v>431</v>
       </c>
       <c r="C440" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9096,7 +9111,7 @@
         <v>432</v>
       </c>
       <c r="C441" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -9107,7 +9122,7 @@
         <v>433</v>
       </c>
       <c r="C442" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9118,7 +9133,7 @@
         <v>434</v>
       </c>
       <c r="C443" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9129,7 +9144,7 @@
         <v>435</v>
       </c>
       <c r="C444" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9140,7 +9155,7 @@
         <v>436</v>
       </c>
       <c r="C445" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -9151,7 +9166,7 @@
         <v>437</v>
       </c>
       <c r="C446" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -9162,7 +9177,7 @@
         <v>438</v>
       </c>
       <c r="C447" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9173,7 +9188,7 @@
         <v>439</v>
       </c>
       <c r="C448" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -9184,7 +9199,7 @@
         <v>440</v>
       </c>
       <c r="C449" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -9195,7 +9210,7 @@
         <v>441</v>
       </c>
       <c r="C450" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -9206,7 +9221,7 @@
         <v>442</v>
       </c>
       <c r="C451" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -9217,7 +9232,7 @@
         <v>443</v>
       </c>
       <c r="C452" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -9228,7 +9243,7 @@
         <v>444</v>
       </c>
       <c r="C453" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -9239,7 +9254,7 @@
         <v>445</v>
       </c>
       <c r="C454" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -9250,10 +9265,10 @@
         <v>446</v>
       </c>
       <c r="C455" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F455" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -9264,7 +9279,7 @@
         <v>447</v>
       </c>
       <c r="C456" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -9275,7 +9290,7 @@
         <v>448</v>
       </c>
       <c r="C457" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9286,7 +9301,7 @@
         <v>449</v>
       </c>
       <c r="C458" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9297,7 +9312,7 @@
         <v>450</v>
       </c>
       <c r="C459" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9308,7 +9323,7 @@
         <v>451</v>
       </c>
       <c r="C460" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9319,10 +9334,10 @@
         <v>452</v>
       </c>
       <c r="C461" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="F461" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9333,7 +9348,7 @@
         <v>453</v>
       </c>
       <c r="C462" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9344,7 +9359,7 @@
         <v>454</v>
       </c>
       <c r="C463" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -9355,10 +9370,10 @@
         <v>455</v>
       </c>
       <c r="C464" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F464" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -9369,7 +9384,7 @@
         <v>456</v>
       </c>
       <c r="C465" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -9380,7 +9395,7 @@
         <v>457</v>
       </c>
       <c r="C466" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -9391,7 +9406,7 @@
         <v>458</v>
       </c>
       <c r="C467" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -9402,7 +9417,7 @@
         <v>459</v>
       </c>
       <c r="C468" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -9413,7 +9428,7 @@
         <v>460</v>
       </c>
       <c r="C469" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -9424,7 +9439,7 @@
         <v>461</v>
       </c>
       <c r="C470" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -9435,7 +9450,7 @@
         <v>462</v>
       </c>
       <c r="C471" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -9446,7 +9461,7 @@
         <v>463</v>
       </c>
       <c r="C472" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -9457,7 +9472,7 @@
         <v>464</v>
       </c>
       <c r="C473" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -9468,7 +9483,7 @@
         <v>465</v>
       </c>
       <c r="C474" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -9479,7 +9494,7 @@
         <v>466</v>
       </c>
       <c r="C475" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -9490,7 +9505,7 @@
         <v>467</v>
       </c>
       <c r="C476" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -9501,7 +9516,7 @@
         <v>468</v>
       </c>
       <c r="C477" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -9512,7 +9527,7 @@
         <v>469</v>
       </c>
       <c r="C478" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -9523,7 +9538,7 @@
         <v>470</v>
       </c>
       <c r="C479" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -9534,7 +9549,7 @@
         <v>471</v>
       </c>
       <c r="C480" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -9545,7 +9560,7 @@
         <v>472</v>
       </c>
       <c r="C481" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -9556,7 +9571,7 @@
         <v>473</v>
       </c>
       <c r="C482" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -9567,7 +9582,7 @@
         <v>474</v>
       </c>
       <c r="C483" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -9578,7 +9593,7 @@
         <v>475</v>
       </c>
       <c r="C484" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -9589,7 +9604,7 @@
         <v>476</v>
       </c>
       <c r="C485" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -9600,7 +9615,7 @@
         <v>477</v>
       </c>
       <c r="C486" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -9611,7 +9626,7 @@
         <v>478</v>
       </c>
       <c r="C487" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -9622,7 +9637,7 @@
         <v>479</v>
       </c>
       <c r="C488" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -9633,7 +9648,7 @@
         <v>461</v>
       </c>
       <c r="C489" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -9644,7 +9659,7 @@
         <v>480</v>
       </c>
       <c r="C490" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -9655,7 +9670,7 @@
         <v>70</v>
       </c>
       <c r="C491" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -9666,10 +9681,10 @@
         <v>481</v>
       </c>
       <c r="C492" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F492" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -9680,7 +9695,7 @@
         <v>482</v>
       </c>
       <c r="C493" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -9691,7 +9706,7 @@
         <v>483</v>
       </c>
       <c r="C494" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -9702,7 +9717,7 @@
         <v>484</v>
       </c>
       <c r="C495" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -9713,7 +9728,7 @@
         <v>485</v>
       </c>
       <c r="C496" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -9724,7 +9739,7 @@
         <v>486</v>
       </c>
       <c r="C497" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -9735,7 +9750,7 @@
         <v>487</v>
       </c>
       <c r="C498" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -9746,7 +9761,7 @@
         <v>488</v>
       </c>
       <c r="C499" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9757,7 +9772,7 @@
         <v>489</v>
       </c>
       <c r="C500" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9768,7 +9783,7 @@
         <v>490</v>
       </c>
       <c r="C501" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9779,7 +9794,7 @@
         <v>491</v>
       </c>
       <c r="C502" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9790,7 +9805,7 @@
         <v>492</v>
       </c>
       <c r="C503" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9801,7 +9816,7 @@
         <v>493</v>
       </c>
       <c r="C504" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9812,7 +9827,7 @@
         <v>494</v>
       </c>
       <c r="C505" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9823,7 +9838,7 @@
         <v>495</v>
       </c>
       <c r="C506" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9834,7 +9849,7 @@
         <v>496</v>
       </c>
       <c r="C507" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9845,7 +9860,7 @@
         <v>497</v>
       </c>
       <c r="C508" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9856,7 +9871,7 @@
         <v>498</v>
       </c>
       <c r="C509" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -9867,7 +9882,7 @@
         <v>499</v>
       </c>
       <c r="C510" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -9878,7 +9893,7 @@
         <v>500</v>
       </c>
       <c r="C511" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -9889,10 +9904,10 @@
         <v>501</v>
       </c>
       <c r="C512" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
       <c r="A513">
         <v>1303</v>
       </c>
@@ -9900,10 +9915,10 @@
         <v>502</v>
       </c>
       <c r="C513" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
       <c r="A514">
         <v>1304</v>
       </c>
@@ -9911,10 +9926,10 @@
         <v>503</v>
       </c>
       <c r="C514" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
       <c r="A515">
         <v>1305</v>
       </c>
@@ -9922,10 +9937,10 @@
         <v>504</v>
       </c>
       <c r="C515" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
       <c r="A516">
         <v>1306</v>
       </c>
@@ -9933,10 +9948,10 @@
         <v>505</v>
       </c>
       <c r="C516" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
       <c r="A517">
         <v>1307</v>
       </c>
@@ -9944,10 +9959,10 @@
         <v>506</v>
       </c>
       <c r="C517" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
       <c r="A518">
         <v>1308</v>
       </c>
@@ -9955,10 +9970,10 @@
         <v>507</v>
       </c>
       <c r="C518" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
       <c r="A519">
         <v>1309</v>
       </c>
@@ -9966,10 +9981,10 @@
         <v>179</v>
       </c>
       <c r="C519" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
       <c r="A520">
         <v>1310</v>
       </c>
@@ -9977,10 +9992,10 @@
         <v>508</v>
       </c>
       <c r="C520" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
       <c r="A521">
         <v>1311</v>
       </c>
@@ -9988,10 +10003,10 @@
         <v>509</v>
       </c>
       <c r="C521" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
       <c r="A522">
         <v>1312</v>
       </c>
@@ -9999,10 +10014,10 @@
         <v>510</v>
       </c>
       <c r="C522" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
       <c r="A523">
         <v>1313</v>
       </c>
@@ -10010,10 +10025,10 @@
         <v>511</v>
       </c>
       <c r="C523" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
       <c r="A524">
         <v>1314</v>
       </c>
@@ -10021,10 +10036,10 @@
         <v>512</v>
       </c>
       <c r="C524" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
       <c r="A525">
         <v>1315</v>
       </c>
@@ -10032,10 +10047,13 @@
         <v>513</v>
       </c>
       <c r="C525" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
+        <v>1060</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
       <c r="A526">
         <v>1316</v>
       </c>
@@ -10043,10 +10061,10 @@
         <v>514</v>
       </c>
       <c r="C526" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
       <c r="A527">
         <v>1317</v>
       </c>
@@ -10054,10 +10072,10 @@
         <v>515</v>
       </c>
       <c r="C527" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
       <c r="A528">
         <v>1318</v>
       </c>
@@ -10065,7 +10083,7 @@
         <v>516</v>
       </c>
       <c r="C528" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -10076,7 +10094,7 @@
         <v>517</v>
       </c>
       <c r="C529" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -10087,7 +10105,7 @@
         <v>518</v>
       </c>
       <c r="C530" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -10098,7 +10116,7 @@
         <v>519</v>
       </c>
       <c r="C531" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -10109,7 +10127,7 @@
         <v>520</v>
       </c>
       <c r="C532" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -10120,7 +10138,7 @@
         <v>521</v>
       </c>
       <c r="C533" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -10131,7 +10149,7 @@
         <v>522</v>
       </c>
       <c r="C534" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -10142,7 +10160,7 @@
         <v>523</v>
       </c>
       <c r="C535" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -10153,7 +10171,7 @@
         <v>524</v>
       </c>
       <c r="C536" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -10164,7 +10182,7 @@
         <v>525</v>
       </c>
       <c r="C537" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -10175,7 +10193,7 @@
         <v>526</v>
       </c>
       <c r="C538" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -10186,7 +10204,7 @@
         <v>527</v>
       </c>
       <c r="C539" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -10197,7 +10215,7 @@
         <v>528</v>
       </c>
       <c r="C540" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -10208,7 +10226,7 @@
         <v>529</v>
       </c>
       <c r="C541" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -10219,7 +10237,7 @@
         <v>530</v>
       </c>
       <c r="C542" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -10230,7 +10248,7 @@
         <v>531</v>
       </c>
       <c r="C543" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -10241,7 +10259,7 @@
         <v>532</v>
       </c>
       <c r="C544" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -10252,10 +10270,10 @@
         <v>380</v>
       </c>
       <c r="C545" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F545" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -10266,7 +10284,7 @@
         <v>533</v>
       </c>
       <c r="C546" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -10277,7 +10295,7 @@
         <v>534</v>
       </c>
       <c r="C547" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -10288,16 +10306,16 @@
         <v>535</v>
       </c>
       <c r="C548" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D548">
         <v>52</v>
       </c>
       <c r="E548" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F548" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -10308,7 +10326,10 @@
         <v>161</v>
       </c>
       <c r="C549" t="s">
-        <v>1082</v>
+        <v>1084</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -10319,7 +10340,10 @@
         <v>76</v>
       </c>
       <c r="C550" t="s">
-        <v>1083</v>
+        <v>1085</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -10330,7 +10354,10 @@
         <v>152</v>
       </c>
       <c r="C551" t="s">
-        <v>1084</v>
+        <v>1086</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -10341,7 +10368,7 @@
         <v>296</v>
       </c>
       <c r="C552" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -10352,10 +10379,10 @@
         <v>392</v>
       </c>
       <c r="C553" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F553" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -10366,7 +10393,10 @@
         <v>42</v>
       </c>
       <c r="C554" t="s">
-        <v>1087</v>
+        <v>1089</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -10377,74 +10407,117 @@
         <v>72</v>
       </c>
       <c r="C555" t="s">
-        <v>1088</v>
+        <v>1090</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="556" spans="1:6">
       <c r="A556">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B556" t="s">
         <v>455</v>
       </c>
       <c r="C556" t="s">
-        <v>1089</v>
+        <v>1091</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="557" spans="1:6">
       <c r="A557">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B557" t="s">
-        <v>455</v>
+        <v>317</v>
       </c>
       <c r="C557" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1122</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="558" spans="1:6">
       <c r="A558">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B558" t="s">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="C558" t="s">
-        <v>1091</v>
+        <v>1093</v>
+      </c>
+      <c r="D558">
+        <v>53</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="559" spans="1:6">
       <c r="A559">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B559" t="s">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="C559" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D559">
-        <v>53</v>
-      </c>
-      <c r="E559" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="F559" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="560" spans="1:6">
       <c r="A560">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B560" t="s">
-        <v>396</v>
+        <v>162</v>
       </c>
       <c r="C560" t="s">
-        <v>1093</v>
+        <v>1095</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561">
+        <v>1358</v>
+      </c>
+      <c r="B561" t="s">
+        <v>536</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562">
+        <v>1359</v>
+      </c>
+      <c r="B562" t="s">
+        <v>537</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D562">
+        <v>55</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
